--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,99 +15,873 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4D</t>
+  </si>
+  <si>
+    <t>Buổi</t>
+  </si>
+  <si>
+    <t>Tiết</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Chiều</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5D</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Toán-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Chào cờ-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Khoa học-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Lịch sử-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Địa lý-Lê Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Toán-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Chào cờ-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Khoa học-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Anh văn-Võ Thị Thanh Khiết</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Lịch sử-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Địa lý-Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Toán-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Chào cờ-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Đạo đức-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Khoa học-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Chính tả-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Lịch sử-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Địa lý-Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Toán-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Khoa học-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Anh văn-Huỳnh Thị Xuân Duyên</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Lịch sử-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Địa lý-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Trần Công Đức</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Toán-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Chào cờ-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Đạo đức-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Khoa học-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Chính tả-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Lịch sử-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Địa lý-Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Toán-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Chào cờ-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Khoa học-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Chính tả-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Lịch sử-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Địa lý-Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3D</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Thể dục-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Toán-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Tập viết-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Thủ công-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Đạo đức-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Thể dục-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Chào cờ-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Toán-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Chính tả-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Tập viết-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Thủ công-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Thể dục-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Chào cờ-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Toán-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Tập viết-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Thủ công-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2E</t>
+  </si>
+  <si>
+    <t>Tập đọc-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Toán-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Thể dục-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Tập viết-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Chào cờ-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Chính tả-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Thủ công-Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2D</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Toán-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Thể dục-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Tập viết-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Thủ công-Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Toán-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Thể dục-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Tập viết-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Chào cờ-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Chính tả-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Thủ công-Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1D</t>
+  </si>
+  <si>
+    <t>Học vần-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Toán-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Chào cờ-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Thủ công-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Thể dục-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Đạo đức-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1C</t>
+  </si>
+  <si>
+    <t>Học vần-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Toán-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Chào cờ-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Thủ công-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Thể dục-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1B</t>
+  </si>
+  <si>
+    <t>Học vần-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Toán-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Chào cờ-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Thủ công-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Thể dục-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Phan Thị Ngân</t>
+  </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 1A</t>
   </si>
   <si>
-    <t>Buổi</t>
-  </si>
-  <si>
-    <t>Tiết</t>
-  </si>
-  <si>
-    <t>Thứ 2</t>
-  </si>
-  <si>
-    <t>Thứ 3</t>
-  </si>
-  <si>
-    <t>Thứ 4</t>
-  </si>
-  <si>
-    <t>Thứ 5</t>
-  </si>
-  <si>
-    <t>Thứ 6</t>
-  </si>
-  <si>
-    <t>Thứ 7</t>
-  </si>
-  <si>
-    <t>Sáng</t>
-  </si>
-  <si>
-    <t>Chiều</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 1B</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 1C</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 1D</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 2A</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 2B</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 2C</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 2D</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 2E</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 3A</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 3B</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 3C</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 3D</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 4A</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 4B</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 4C</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 5A</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 5B</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 5C</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 5D</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 4D</t>
+    <t>Học vần-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Toán-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Thủ công-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Thể dục-Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trịnh Thị Lệ Hoa</t>
   </si>
 </sst>
 </file>
@@ -496,7 +1270,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S418"/>
+  <dimension ref="A1:S373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A363" sqref="A363:H373"/>
@@ -506,12 +1280,12 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="44.703369" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="48.273926" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="48.273926" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="42.418213" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="34.134521" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="42.418213" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="1"/>
@@ -566,7 +1340,9 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -623,7 +1399,7 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -683,49 +1459,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="4" t="s">
@@ -760,64 +1500,108 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="6"/>
       <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="6"/>
       <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="6"/>
       <c r="B25" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="6"/>
       <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -877,65 +1661,13 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:19">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
     <row r="35" spans="1:19">
       <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="4" t="s">
@@ -970,64 +1702,112 @@
       <c r="B40" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="6"/>
       <c r="B41" s="5">
         <v>2</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="6"/>
       <c r="B42" s="5">
         <v>3</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="6"/>
       <c r="B43" s="5">
         <v>4</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="6"/>
       <c r="B44" s="5">
         <v>5</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -1087,65 +1867,13 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:19">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
     <row r="53" spans="1:19">
       <c r="A53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="4" t="s">
@@ -1154,12 +1882,24 @@
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="5" t="s">
@@ -1168,64 +1908,112 @@
       <c r="B58" s="5">
         <v>1</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="6"/>
       <c r="B59" s="5">
         <v>2</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="6"/>
       <c r="B60" s="5">
         <v>3</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="6"/>
       <c r="B61" s="5">
         <v>4</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="6"/>
       <c r="B62" s="5">
         <v>5</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -1285,65 +2073,13 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:19">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
     <row r="71" spans="1:19">
       <c r="A71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="2"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:19">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="4" t="s">
@@ -1352,12 +2088,24 @@
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="5" t="s">
@@ -1366,64 +2114,112 @@
       <c r="B76" s="5">
         <v>1</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="6"/>
       <c r="B77" s="5">
         <v>2</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="6"/>
       <c r="B78" s="5">
         <v>3</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="6"/>
       <c r="B79" s="5">
         <v>4</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="6"/>
       <c r="B80" s="5">
         <v>5</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -1483,65 +2279,13 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:19">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:19">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:19">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
     <row r="89" spans="1:19">
       <c r="A89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="2"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="4" t="s">
@@ -1550,12 +2294,24 @@
       <c r="B93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="5" t="s">
@@ -1564,64 +2320,110 @@
       <c r="B94" s="5">
         <v>1</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="6"/>
       <c r="B95" s="5">
         <v>2</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="6"/>
       <c r="B96" s="5">
         <v>3</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="6"/>
       <c r="B97" s="5">
         <v>4</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="H97" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="6"/>
       <c r="B98" s="5">
         <v>5</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="C98" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" s="5">
         <v>1</v>
@@ -1681,65 +2483,13 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:19">
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:19">
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:19">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
     <row r="107" spans="1:19">
       <c r="A107" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="2"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:19">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
@@ -1748,12 +2498,24 @@
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="C111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="5" t="s">
@@ -1762,64 +2524,112 @@
       <c r="B112" s="5">
         <v>1</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
+      <c r="C112" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="6"/>
       <c r="B113" s="5">
         <v>2</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
+      <c r="C113" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="H113" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="6"/>
       <c r="B114" s="5">
         <v>3</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
+      <c r="C114" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+      <c r="H114" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="6"/>
       <c r="B115" s="5">
         <v>4</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
+      <c r="C115" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="H115" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="6"/>
       <c r="B116" s="5">
         <v>5</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
+      <c r="C116" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+      <c r="H116" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" s="5">
         <v>1</v>
@@ -1879,49 +2689,13 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="124" spans="1:19">
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
     <row r="125" spans="1:19">
       <c r="A125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="2"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:19">
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:19">
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="4" t="s">
@@ -1930,12 +2704,24 @@
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="C129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="5" t="s">
@@ -1944,64 +2730,112 @@
       <c r="B130" s="5">
         <v>1</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
+      <c r="C130" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="H130" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="6"/>
       <c r="B131" s="5">
         <v>2</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
+      <c r="C131" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="H131" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="6"/>
       <c r="B132" s="5">
         <v>3</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+      <c r="C132" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="H132" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="6"/>
       <c r="B133" s="5">
         <v>4</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
+      <c r="C133" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="H133" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="6"/>
       <c r="B134" s="5">
         <v>5</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="C134" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="H134" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" s="5">
         <v>1</v>
@@ -2063,33 +2897,11 @@
     </row>
     <row r="143" spans="1:19">
       <c r="A143" s="3" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="2"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:19">
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:19">
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:19">
       <c r="A147" s="4" t="s">
@@ -2098,12 +2910,24 @@
       <c r="B147" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="5" t="s">
@@ -2112,64 +2936,108 @@
       <c r="B148" s="5">
         <v>1</v>
       </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
+      <c r="C148" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
+      <c r="H148" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="149" spans="1:19">
       <c r="A149" s="6"/>
       <c r="B149" s="5">
         <v>2</v>
       </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="C149" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
+      <c r="H149" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="6"/>
       <c r="B150" s="5">
         <v>3</v>
       </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="C150" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
+      <c r="H150" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="6"/>
       <c r="B151" s="5">
         <v>4</v>
       </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="C151" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
+      <c r="H151" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="152" spans="1:19">
       <c r="A152" s="6"/>
       <c r="B152" s="5">
         <v>5</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="C152" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
+      <c r="G152" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="153" spans="1:19">
       <c r="A153" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B153" s="5">
         <v>1</v>
@@ -2229,30 +3097,14 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:19">
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-    </row>
     <row r="161" spans="1:19">
       <c r="A161" s="3" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="2"/>
     </row>
-    <row r="164" spans="1:19">
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-    </row>
     <row r="165" spans="1:19">
       <c r="A165" s="4" t="s">
         <v>1</v>
@@ -2260,12 +3112,24 @@
       <c r="B165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
+      <c r="C165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="5" t="s">
@@ -2274,64 +3138,110 @@
       <c r="B166" s="5">
         <v>1</v>
       </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
+      <c r="C166" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
+      <c r="H166" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="6"/>
       <c r="B167" s="5">
         <v>2</v>
       </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
+      <c r="C167" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
+      <c r="H167" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="6"/>
       <c r="B168" s="5">
         <v>3</v>
       </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
+      <c r="C168" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
+      <c r="G168" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="6"/>
       <c r="B169" s="5">
         <v>4</v>
       </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
+      <c r="C169" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
+      <c r="G169" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="6"/>
       <c r="B170" s="5">
         <v>5</v>
       </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
+      <c r="C170" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
+      <c r="H170" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B171" s="5">
         <v>1</v>
@@ -2391,33 +3301,9 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:19">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:19">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:19">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-    </row>
     <row r="179" spans="1:19">
       <c r="A179" s="3" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -2456,64 +3342,108 @@
       <c r="B184" s="5">
         <v>1</v>
       </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
+      <c r="C184" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
+      <c r="H184" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="6"/>
       <c r="B185" s="5">
         <v>2</v>
       </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
+      <c r="C185" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
+      <c r="H185" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="186" spans="1:19">
       <c r="A186" s="6"/>
       <c r="B186" s="5">
         <v>3</v>
       </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="C186" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
+      <c r="H186" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="6"/>
       <c r="B187" s="5">
         <v>4</v>
       </c>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="C187" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
+      <c r="H187" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="188" spans="1:19">
       <c r="A188" s="6"/>
       <c r="B188" s="5">
         <v>5</v>
       </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
+      <c r="C188" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
+      <c r="G188" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B189" s="5">
         <v>1</v>
@@ -2573,49 +3503,13 @@
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
     </row>
-    <row r="194" spans="1:19">
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:19">
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:19">
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-    </row>
     <row r="197" spans="1:19">
       <c r="A197" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="198" spans="1:19">
       <c r="A198" s="2"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
     </row>
     <row r="201" spans="1:19">
       <c r="A201" s="4" t="s">
@@ -2650,64 +3544,112 @@
       <c r="B202" s="5">
         <v>1</v>
       </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
+      <c r="C202" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
+      <c r="H202" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="203" spans="1:19">
       <c r="A203" s="6"/>
       <c r="B203" s="5">
         <v>2</v>
       </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
+      <c r="C203" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
+      <c r="H203" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="204" spans="1:19">
       <c r="A204" s="6"/>
       <c r="B204" s="5">
         <v>3</v>
       </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
+      <c r="C204" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
+      <c r="H204" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="6"/>
       <c r="B205" s="5">
         <v>4</v>
       </c>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
+      <c r="C205" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
+      <c r="G205" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="206" spans="1:19">
       <c r="A206" s="6"/>
       <c r="B206" s="5">
         <v>5</v>
       </c>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
+      <c r="C206" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
+      <c r="G206" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B207" s="5">
         <v>1</v>
@@ -2767,65 +3709,13 @@
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:19">
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:19">
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:19">
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-    </row>
     <row r="215" spans="1:19">
       <c r="A215" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
+        <v>174</v>
+      </c>
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="2"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:19">
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:19">
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
     </row>
     <row r="219" spans="1:19">
       <c r="A219" s="4" t="s">
@@ -2860,64 +3750,110 @@
       <c r="B220" s="5">
         <v>1</v>
       </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
+      <c r="C220" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
+      <c r="H220" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="221" spans="1:19">
       <c r="A221" s="6"/>
       <c r="B221" s="5">
         <v>2</v>
       </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
+      <c r="C221" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
+      <c r="H221" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="222" spans="1:19">
       <c r="A222" s="6"/>
       <c r="B222" s="5">
         <v>3</v>
       </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
+      <c r="C222" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
+      <c r="H222" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="6"/>
       <c r="B223" s="5">
         <v>4</v>
       </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
+      <c r="C223" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
+      <c r="G223" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="6"/>
       <c r="B224" s="5">
         <v>5</v>
       </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
+      <c r="C224" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
-      <c r="H224" s="6"/>
+      <c r="H224" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="225" spans="1:19">
       <c r="A225" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B225" s="5">
         <v>1</v>
@@ -2977,65 +3913,13 @@
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:19">
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:19">
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:19">
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-    </row>
     <row r="233" spans="1:19">
       <c r="A233" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="234" spans="1:19">
       <c r="A234" s="2"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:19">
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:19">
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
     </row>
     <row r="237" spans="1:19">
       <c r="A237" s="4" t="s">
@@ -3044,12 +3928,24 @@
       <c r="B237" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
+      <c r="C237" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="238" spans="1:19">
       <c r="A238" s="5" t="s">
@@ -3058,64 +3954,110 @@
       <c r="B238" s="5">
         <v>1</v>
       </c>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
+      <c r="C238" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
+      <c r="H238" s="6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="239" spans="1:19">
       <c r="A239" s="6"/>
       <c r="B239" s="5">
         <v>2</v>
       </c>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
+      <c r="C239" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
+      <c r="H239" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="240" spans="1:19">
       <c r="A240" s="6"/>
       <c r="B240" s="5">
         <v>3</v>
       </c>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="C240" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
+      <c r="G240" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="241" spans="1:19">
       <c r="A241" s="6"/>
       <c r="B241" s="5">
         <v>4</v>
       </c>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
+      <c r="C241" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
+      <c r="H241" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="242" spans="1:19">
       <c r="A242" s="6"/>
       <c r="B242" s="5">
         <v>5</v>
       </c>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
+      <c r="C242" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
+      <c r="H242" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="243" spans="1:19">
       <c r="A243" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B243" s="5">
         <v>1</v>
@@ -3175,65 +4117,13 @@
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
-    <row r="248" spans="1:19">
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="1:19">
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:19">
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-    </row>
     <row r="251" spans="1:19">
       <c r="A251" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="252" spans="1:19">
       <c r="A252" s="2"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-    </row>
-    <row r="253" spans="1:19">
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="1:19">
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
     </row>
     <row r="255" spans="1:19">
       <c r="A255" s="4" t="s">
@@ -3242,12 +4132,24 @@
       <c r="B255" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
+      <c r="C255" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="256" spans="1:19">
       <c r="A256" s="5" t="s">
@@ -3256,64 +4158,110 @@
       <c r="B256" s="5">
         <v>1</v>
       </c>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
+      <c r="C256" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="G256" s="6"/>
-      <c r="H256" s="6"/>
+      <c r="H256" s="6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="257" spans="1:19">
       <c r="A257" s="6"/>
       <c r="B257" s="5">
         <v>2</v>
       </c>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
+      <c r="C257" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="258" spans="1:19">
       <c r="A258" s="6"/>
       <c r="B258" s="5">
         <v>3</v>
       </c>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
+      <c r="C258" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
+      <c r="H258" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="259" spans="1:19">
       <c r="A259" s="6"/>
       <c r="B259" s="5">
         <v>4</v>
       </c>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
+      <c r="C259" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
+      <c r="H259" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="260" spans="1:19">
       <c r="A260" s="6"/>
       <c r="B260" s="5">
         <v>5</v>
       </c>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
+      <c r="C260" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
+      <c r="H260" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="261" spans="1:19">
       <c r="A261" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B261" s="5">
         <v>1</v>
@@ -3373,65 +4321,13 @@
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
-    <row r="266" spans="1:19">
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-    </row>
-    <row r="267" spans="1:19">
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-    </row>
-    <row r="268" spans="1:19">
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-    </row>
     <row r="269" spans="1:19">
       <c r="A269" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="270" spans="1:19">
       <c r="A270" s="2"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-    </row>
-    <row r="271" spans="1:19">
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-    </row>
-    <row r="272" spans="1:19">
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
     </row>
     <row r="273" spans="1:19">
       <c r="A273" s="4" t="s">
@@ -3440,12 +4336,24 @@
       <c r="B273" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
+      <c r="C273" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="274" spans="1:19">
       <c r="A274" s="5" t="s">
@@ -3454,64 +4362,110 @@
       <c r="B274" s="5">
         <v>1</v>
       </c>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
+      <c r="C274" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H274" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="275" spans="1:19">
       <c r="A275" s="6"/>
       <c r="B275" s="5">
         <v>2</v>
       </c>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
+      <c r="C275" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
+      <c r="H275" s="6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="276" spans="1:19">
       <c r="A276" s="6"/>
       <c r="B276" s="5">
         <v>3</v>
       </c>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
+      <c r="C276" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
+      <c r="H276" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="277" spans="1:19">
       <c r="A277" s="6"/>
       <c r="B277" s="5">
         <v>4</v>
       </c>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
+      <c r="C277" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
+      <c r="H277" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="278" spans="1:19">
       <c r="A278" s="6"/>
       <c r="B278" s="5">
         <v>5</v>
       </c>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
+      <c r="C278" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
+      <c r="H278" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="279" spans="1:19">
       <c r="A279" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B279" s="5">
         <v>1</v>
@@ -3571,65 +4525,13 @@
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
     </row>
-    <row r="284" spans="1:19">
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-    </row>
-    <row r="285" spans="1:19">
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-    </row>
-    <row r="286" spans="1:19">
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-    </row>
     <row r="287" spans="1:19">
       <c r="A287" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
+        <v>234</v>
+      </c>
     </row>
     <row r="288" spans="1:19">
       <c r="A288" s="2"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-    </row>
-    <row r="289" spans="1:19">
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
-    </row>
-    <row r="290" spans="1:19">
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
     </row>
     <row r="291" spans="1:19">
       <c r="A291" s="4" t="s">
@@ -3638,12 +4540,24 @@
       <c r="B291" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="4"/>
-      <c r="G291" s="4"/>
-      <c r="H291" s="4"/>
+      <c r="C291" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H291" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="5" t="s">
@@ -3652,64 +4566,110 @@
       <c r="B292" s="5">
         <v>1</v>
       </c>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
+      <c r="C292" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="G292" s="6"/>
-      <c r="H292" s="6"/>
+      <c r="H292" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="293" spans="1:19">
       <c r="A293" s="6"/>
       <c r="B293" s="5">
         <v>2</v>
       </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
+      <c r="C293" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="G293" s="6"/>
-      <c r="H293" s="6"/>
+      <c r="H293" s="6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="294" spans="1:19">
       <c r="A294" s="6"/>
       <c r="B294" s="5">
         <v>3</v>
       </c>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
+      <c r="C294" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
-      <c r="H294" s="6"/>
+      <c r="H294" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="295" spans="1:19">
       <c r="A295" s="6"/>
       <c r="B295" s="5">
         <v>4</v>
       </c>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
+      <c r="C295" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
-      <c r="H295" s="6"/>
+      <c r="H295" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="296" spans="1:19">
       <c r="A296" s="6"/>
       <c r="B296" s="5">
         <v>5</v>
       </c>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
+      <c r="C296" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G296" s="6"/>
-      <c r="H296" s="6"/>
+      <c r="H296" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="297" spans="1:19">
       <c r="A297" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B297" s="5">
         <v>1</v>
@@ -3769,49 +4729,13 @@
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
     </row>
-    <row r="304" spans="1:19">
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
-      <c r="H304" s="1"/>
-    </row>
     <row r="305" spans="1:19">
       <c r="A305" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="2"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-    </row>
-    <row r="307" spans="1:19">
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-    </row>
-    <row r="308" spans="1:19">
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
-      <c r="H308" s="1"/>
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="4" t="s">
@@ -3820,12 +4744,24 @@
       <c r="B309" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
+      <c r="C309" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="5" t="s">
@@ -3834,64 +4770,108 @@
       <c r="B310" s="5">
         <v>1</v>
       </c>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
+      <c r="C310" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="G310" s="6"/>
-      <c r="H310" s="6"/>
+      <c r="H310" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="6"/>
       <c r="B311" s="5">
         <v>2</v>
       </c>
-      <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
+      <c r="C311" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
-      <c r="H311" s="6"/>
+      <c r="H311" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="6"/>
       <c r="B312" s="5">
         <v>3</v>
       </c>
-      <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
+      <c r="C312" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
-      <c r="H312" s="6"/>
+      <c r="H312" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="6"/>
       <c r="B313" s="5">
         <v>4</v>
       </c>
-      <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
-      <c r="F313" s="6"/>
+      <c r="C313" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G313" s="6"/>
-      <c r="H313" s="6"/>
+      <c r="H313" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="6"/>
       <c r="B314" s="5">
         <v>5</v>
       </c>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+      <c r="C314" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
-      <c r="H314" s="6"/>
+      <c r="H314" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B315" s="5">
         <v>1</v>
@@ -3953,33 +4933,11 @@
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="3" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
     </row>
     <row r="324" spans="1:19">
       <c r="A324" s="2"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
-      <c r="H324" s="1"/>
-    </row>
-    <row r="325" spans="1:19">
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
-    </row>
-    <row r="326" spans="1:19">
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
     </row>
     <row r="327" spans="1:19">
       <c r="A327" s="4" t="s">
@@ -3988,12 +4946,24 @@
       <c r="B327" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4"/>
-      <c r="G327" s="4"/>
-      <c r="H327" s="4"/>
+      <c r="C327" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="5" t="s">
@@ -4002,64 +4972,108 @@
       <c r="B328" s="5">
         <v>1</v>
       </c>
-      <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
-      <c r="F328" s="6"/>
+      <c r="C328" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="G328" s="6"/>
-      <c r="H328" s="6"/>
+      <c r="H328" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="329" spans="1:19">
       <c r="A329" s="6"/>
       <c r="B329" s="5">
         <v>2</v>
       </c>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
+      <c r="C329" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
+      <c r="H329" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="6"/>
       <c r="B330" s="5">
         <v>3</v>
       </c>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
+      <c r="C330" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
+      <c r="H330" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="6"/>
       <c r="B331" s="5">
         <v>4</v>
       </c>
-      <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
+      <c r="C331" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
-      <c r="H331" s="6"/>
+      <c r="H331" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="332" spans="1:19">
       <c r="A332" s="6"/>
       <c r="B332" s="5">
         <v>5</v>
       </c>
-      <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
+      <c r="C332" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
-      <c r="H332" s="6"/>
+      <c r="H332" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B333" s="5">
         <v>1</v>
@@ -4119,30 +5133,14 @@
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
     </row>
-    <row r="338" spans="1:19">
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-    </row>
     <row r="341" spans="1:19">
       <c r="A341" s="3" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
     </row>
     <row r="342" spans="1:19">
       <c r="A342" s="2"/>
     </row>
-    <row r="344" spans="1:19">
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
-      <c r="H344" s="1"/>
-    </row>
     <row r="345" spans="1:19">
       <c r="A345" s="4" t="s">
         <v>1</v>
@@ -4150,12 +5148,24 @@
       <c r="B345" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
-      <c r="G345" s="4"/>
-      <c r="H345" s="4"/>
+      <c r="C345" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="346" spans="1:19">
       <c r="A346" s="5" t="s">
@@ -4164,64 +5174,108 @@
       <c r="B346" s="5">
         <v>1</v>
       </c>
-      <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
-      <c r="E346" s="6"/>
-      <c r="F346" s="6"/>
+      <c r="C346" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F346" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="G346" s="6"/>
-      <c r="H346" s="6"/>
+      <c r="H346" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="347" spans="1:19">
       <c r="A347" s="6"/>
       <c r="B347" s="5">
         <v>2</v>
       </c>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
-      <c r="F347" s="6"/>
+      <c r="C347" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F347" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G347" s="6"/>
-      <c r="H347" s="6"/>
+      <c r="H347" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="348" spans="1:19">
       <c r="A348" s="6"/>
       <c r="B348" s="5">
         <v>3</v>
       </c>
-      <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
+      <c r="C348" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
-      <c r="H348" s="6"/>
+      <c r="H348" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="349" spans="1:19">
       <c r="A349" s="6"/>
       <c r="B349" s="5">
         <v>4</v>
       </c>
-      <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
+      <c r="C349" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
-      <c r="H349" s="6"/>
+      <c r="H349" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="350" spans="1:19">
       <c r="A350" s="6"/>
       <c r="B350" s="5">
         <v>5</v>
       </c>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
+      <c r="C350" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
-      <c r="H350" s="6"/>
+      <c r="H350" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="351" spans="1:19">
       <c r="A351" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B351" s="5">
         <v>1</v>
@@ -4281,33 +5335,9 @@
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
     </row>
-    <row r="356" spans="1:19">
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-    </row>
-    <row r="357" spans="1:19">
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-    </row>
-    <row r="358" spans="1:19">
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-    </row>
     <row r="359" spans="1:19">
       <c r="A359" s="3" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -4346,64 +5376,90 @@
       <c r="B364" s="5">
         <v>1</v>
       </c>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
+      <c r="C364" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>281</v>
+      </c>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
-      <c r="H364" s="6"/>
+      <c r="H364" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="365" spans="1:19">
       <c r="A365" s="6"/>
       <c r="B365" s="5">
         <v>2</v>
       </c>
-      <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
+      <c r="C365" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
-      <c r="H365" s="6"/>
+      <c r="H365" s="6" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="366" spans="1:19">
       <c r="A366" s="6"/>
       <c r="B366" s="5">
         <v>3</v>
       </c>
-      <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
+      <c r="C366" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
-      <c r="H366" s="6"/>
+      <c r="H366" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="367" spans="1:19">
       <c r="A367" s="6"/>
       <c r="B367" s="5">
         <v>4</v>
       </c>
-      <c r="C367" s="6"/>
+      <c r="C367" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
-      <c r="H367" s="6"/>
+      <c r="H367" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="368" spans="1:19">
       <c r="A368" s="6"/>
       <c r="B368" s="5">
         <v>5</v>
       </c>
-      <c r="C368" s="6"/>
+      <c r="C368" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
-      <c r="H368" s="6"/>
+      <c r="H368" s="6" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="369" spans="1:19">
       <c r="A369" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B369" s="5">
         <v>1</v>
@@ -4462,286 +5518,6 @@
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
-    </row>
-    <row r="374" spans="1:19">
-      <c r="C374" s="1"/>
-      <c r="D374" s="1"/>
-      <c r="E374" s="1"/>
-      <c r="F374" s="1"/>
-      <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
-    </row>
-    <row r="375" spans="1:19">
-      <c r="C375" s="1"/>
-      <c r="D375" s="1"/>
-      <c r="E375" s="1"/>
-      <c r="F375" s="1"/>
-      <c r="G375" s="1"/>
-      <c r="H375" s="1"/>
-    </row>
-    <row r="376" spans="1:19">
-      <c r="C376" s="1"/>
-      <c r="D376" s="1"/>
-      <c r="E376" s="1"/>
-      <c r="F376" s="1"/>
-      <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
-    </row>
-    <row r="377" spans="1:19">
-      <c r="C377" s="1"/>
-      <c r="D377" s="1"/>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
-      <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
-    </row>
-    <row r="378" spans="1:19">
-      <c r="C378" s="1"/>
-      <c r="D378" s="1"/>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1"/>
-      <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-    </row>
-    <row r="384" spans="1:19">
-      <c r="C384" s="1"/>
-      <c r="D384" s="1"/>
-      <c r="E384" s="1"/>
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-    </row>
-    <row r="385" spans="1:19">
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-    </row>
-    <row r="386" spans="1:19">
-      <c r="C386" s="1"/>
-      <c r="D386" s="1"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-    </row>
-    <row r="387" spans="1:19">
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-    </row>
-    <row r="388" spans="1:19">
-      <c r="C388" s="1"/>
-      <c r="D388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-    </row>
-    <row r="389" spans="1:19">
-      <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
-      <c r="H389" s="1"/>
-    </row>
-    <row r="390" spans="1:19">
-      <c r="C390" s="1"/>
-      <c r="D390" s="1"/>
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
-      <c r="G390" s="1"/>
-      <c r="H390" s="1"/>
-    </row>
-    <row r="391" spans="1:19">
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
-      <c r="H391" s="1"/>
-    </row>
-    <row r="392" spans="1:19">
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
-      <c r="G392" s="1"/>
-      <c r="H392" s="1"/>
-    </row>
-    <row r="393" spans="1:19">
-      <c r="C393" s="1"/>
-      <c r="D393" s="1"/>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-    </row>
-    <row r="394" spans="1:19">
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-    </row>
-    <row r="395" spans="1:19">
-      <c r="C395" s="1"/>
-      <c r="D395" s="1"/>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
-      <c r="G395" s="1"/>
-      <c r="H395" s="1"/>
-    </row>
-    <row r="396" spans="1:19">
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-      <c r="E396" s="1"/>
-      <c r="F396" s="1"/>
-      <c r="G396" s="1"/>
-      <c r="H396" s="1"/>
-    </row>
-    <row r="397" spans="1:19">
-      <c r="C397" s="1"/>
-      <c r="D397" s="1"/>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
-      <c r="G397" s="1"/>
-      <c r="H397" s="1"/>
-    </row>
-    <row r="398" spans="1:19">
-      <c r="C398" s="1"/>
-      <c r="D398" s="1"/>
-      <c r="E398" s="1"/>
-      <c r="F398" s="1"/>
-      <c r="G398" s="1"/>
-      <c r="H398" s="1"/>
-    </row>
-    <row r="404" spans="1:19">
-      <c r="C404" s="1"/>
-      <c r="D404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-    </row>
-    <row r="405" spans="1:19">
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-    </row>
-    <row r="406" spans="1:19">
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-    </row>
-    <row r="407" spans="1:19">
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-    </row>
-    <row r="408" spans="1:19">
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
-      <c r="H408" s="1"/>
-    </row>
-    <row r="409" spans="1:19">
-      <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-    </row>
-    <row r="410" spans="1:19">
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
-      <c r="H410" s="1"/>
-    </row>
-    <row r="411" spans="1:19">
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-    </row>
-    <row r="412" spans="1:19">
-      <c r="C412" s="1"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-    </row>
-    <row r="413" spans="1:19">
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-    </row>
-    <row r="414" spans="1:19">
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-    </row>
-    <row r="415" spans="1:19">
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-    </row>
-    <row r="416" spans="1:19">
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-    </row>
-    <row r="417" spans="1:19">
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-    </row>
-    <row r="418" spans="1:19">
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -5069,9 +5069,7 @@
       <c r="B334" s="5">
         <v>2</v>
       </c>
-      <c r="C334" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -5083,9 +5081,7 @@
       <c r="B335" s="5">
         <v>3</v>
       </c>
-      <c r="C335" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -5097,9 +5093,7 @@
       <c r="B336" s="5">
         <v>4</v>
       </c>
-      <c r="C336" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="C336" s="6"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -5111,9 +5105,7 @@
       <c r="B337" s="5">
         <v>5</v>
       </c>
-      <c r="C337" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -5285,9 +5277,7 @@
       <c r="B352" s="5">
         <v>2</v>
       </c>
-      <c r="C352" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -5299,9 +5289,7 @@
       <c r="B353" s="5">
         <v>3</v>
       </c>
-      <c r="C353" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="C353" s="6"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -5313,9 +5301,7 @@
       <c r="B354" s="5">
         <v>4</v>
       </c>
-      <c r="C354" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="C354" s="6"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -5327,9 +5313,7 @@
       <c r="B355" s="5">
         <v>5</v>
       </c>
-      <c r="C355" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
@@ -5485,9 +5469,7 @@
       <c r="B370" s="5">
         <v>2</v>
       </c>
-      <c r="C370" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
@@ -5499,9 +5481,7 @@
       <c r="B371" s="5">
         <v>3</v>
       </c>
-      <c r="C371" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="C371" s="6"/>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
@@ -5513,9 +5493,7 @@
       <c r="B372" s="5">
         <v>4</v>
       </c>
-      <c r="C372" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="C372" s="6"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
@@ -5527,9 +5505,7 @@
       <c r="B373" s="5">
         <v>5</v>
       </c>
-      <c r="C373" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="C373" s="6"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>

--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>THỜI KHÓA BIỂU LỚP 1A</t>
   </si>
@@ -108,36 +108,6 @@
   </si>
   <si>
     <t>Chào cờ-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 1C</t>
-  </si>
-  <si>
-    <t>Học vần-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Toán-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Thủ công-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Thể dục-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Đạo đức-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Chào cờ-Đỗ Thị Phân</t>
   </si>
 </sst>
 </file>
@@ -526,10 +496,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A39" sqref="A39:H49"/>
+      <selection activeCell="A21" sqref="A21:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="27.95" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,214 +925,6 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5">
-        <v>3</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5">
-        <v>4</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5">
-        <v>5</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5">
-        <v>2</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5">
-        <v>3</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5">
-        <v>4</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5">
-        <v>5</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -1174,10 +936,6 @@
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.47244094488189" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.315" footer="0.315"/>

--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>THỜI KHÓA BIỂU LỚP 1A</t>
   </si>
@@ -47,748 +47,1072 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Toán-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Chào cờ-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Thủ công-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Âm nhạc-Trần Văn Thành</t>
-  </si>
-  <si>
-    <t>Thể dục-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Đạo đức-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Trịnh Thị Lệ Hoa</t>
+    <t>HĐTT-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Mĩ Thuật-Nguyễn Dũng</t>
+  </si>
+  <si>
+    <t>Toán-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Thủ công-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Thể dục-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Đoàn Thị Phu</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Đoàn Thị Phu</t>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t>Học vần-Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
     <t>THỜI KHÓA BIỂU LỚP 1B</t>
   </si>
   <si>
-    <t>Học vần-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Toán-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Thủ công-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Thể dục-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Đạo đức-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Chào cờ-Phan Thị Ngân</t>
+    <t>HĐTT-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Toán-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Thủ công-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Thể dục-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Phan Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Phan Thị Phương Chi</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 1C</t>
   </si>
   <si>
-    <t>Học vần-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Toán-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Thủ công-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Thể dục-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Đạo đức-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Chào cờ-Đỗ Thị Phân</t>
+    <t>HĐTT-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Toán-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Thủ công-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Thể dục-Lâm Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Lâm Thị Ánh Hồng</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 1D</t>
   </si>
   <si>
-    <t>Học vần-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Toán-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Thủ công-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Thể dục-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Đạo đức-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Chào cờ-Tạ Nguyễn Hướng Dương</t>
+    <t>HĐTT-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Toán-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Thủ công-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Thể dục-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1E</t>
+  </si>
+  <si>
+    <t>HĐTT-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Mĩ Thuật-Ngô Hoàng Vũ</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Toán-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Thủ công-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Thể dục-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Huỳnh Thị Thu Thanh</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1G</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1H</t>
+  </si>
+  <si>
+    <t>HĐTT-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Tiếng Việt-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Toán-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Đạo đức-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Thủ công-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Thể dục-Võ Thị Sương</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Võ Thị Sương</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 2A</t>
   </si>
   <si>
-    <t>Tập đọc-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Tập viết-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Toán-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Thể dục-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Đạo đức-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Kể chuyện-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Chính tả-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Thủ công-Đào Thị Ngọc</t>
+    <t>Tập đọc-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Toán-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Chính tả-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Thể dục-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Thủ công-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Nguyễn Phi Cường</t>
+  </si>
+  <si>
+    <t>HĐTT-Ngô Thị Tuyết Nga</t>
+  </si>
+  <si>
+    <t>Đạo đức-Ngô Thị Tuyết Nga</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 2B</t>
   </si>
   <si>
-    <t>Tập đọc-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Tập viết-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Toán-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Thể dục-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Đạo đức-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Kể chuyện-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Chính tả-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Thủ công-Nguyễn Thị Ngọc Thạch</t>
+    <t>HĐTT-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Toán-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Thể dục-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Tập viết-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Thủ công-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Nguyễn Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Nguyễn Kiều Oanh</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 2C</t>
   </si>
   <si>
-    <t>Tập đọc-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Tập viết-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Toán-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Thể dục-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Đạo đức-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Kể chuyện-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Chính tả-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Thủ công-Trần Thị Thu Hà</t>
+    <t>Tập đọc-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Kim Hường</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Kim Hường</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 2D</t>
   </si>
   <si>
-    <t>Tập đọc-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Tập viết-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Toán-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Thể dục-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Đạo đức-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Kể chuyện-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Chính tả-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Thủ công-Nguyễn Công Mỹ Trang</t>
+    <t>Tập đọc-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Toán-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Tập viết-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Thủ công-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Thể dục-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>HĐTT-Lê Đào Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Đào Bích Hạnh</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 2E</t>
   </si>
   <si>
-    <t>Tập đọc-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Tập viết-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Toán-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Thể dục-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Đạo đức-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Kể chuyện-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Chính tả-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Thủ công-Phan Thị Đức</t>
+    <t>Tập đọc-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Toán-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Tập viết-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Đạo đức-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Thể dục-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Chính tả-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>Thủ công-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>HĐTT-Hồ Thị Thanh Hải</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2G</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Toán-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Tập viết-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Thể dục-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Thủ công-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>HĐTT-Lê Thị Mỹ Liên</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Thị Mỹ Liên</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 3A</t>
   </si>
   <si>
-    <t>Tập đọc-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Toán-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Đạo đức-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Thể dục-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Chính tả-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Tập viết-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Thủ công-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Lê Thị Diễm Lệ</t>
+    <t>Tập đọc-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Thể dục-Phạm Viết Toàn</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Tin học-Phạm Chí Thắng</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Anh văn-Nguyễn Thị Thu Thúy</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Ngọc Hạnh</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 3B</t>
   </si>
   <si>
-    <t>Tập đọc-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Toán-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Đạo đức-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Thể dục-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Chính tả-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Tập viết-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Thủ công-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Nguyễn Thị Nga</t>
+    <t>Tập làm văn-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Minh Tình</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Minh Tình</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 3C</t>
   </si>
   <si>
-    <t>Tập đọc-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Toán-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Đạo đức-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Thể dục-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Chính tả-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Tập viết-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Thủ công-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Mai Anh Tùng</t>
+    <t>Luyện từ và câu-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Tập đọc-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Toán-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Thủ công-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>HĐTT-Phan Thị Châu</t>
+  </si>
+  <si>
+    <t>Chính tả-Phan Thị Châu</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 3D</t>
   </si>
   <si>
-    <t>Tập đọc-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Toán-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Đạo đức-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Thể dục-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Chính tả-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Tập viết-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Thủ công-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Trần Quang Phú</t>
+    <t>Toán-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Cẩm (B)</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3E</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Anh văn-Thiều Thị Thanh Thu</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Cẩm (A)</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3G</t>
+  </si>
+  <si>
+    <t>Tập đọc-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Toán-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Đạo đức-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Chính tả-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Thể dục-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>HĐTT-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Thủ công-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Tập viết-Huỳnh Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3H</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Anh văn-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Nhung</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 4A</t>
   </si>
   <si>
-    <t>Tập đọc-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Toán-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Chào cờ-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Đạo đức-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Khoa học-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Chính tả-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Lịch sử-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Địa lý-Đỗ Thị Quốc Danh</t>
+    <t>HĐTT-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Kĩ thuật-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Đức Hạnh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Đức Hạnh</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 4B</t>
   </si>
   <si>
-    <t>Tập đọc-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Toán-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Chào cờ-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Đạo đức-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Khoa học-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Chính tả-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Lịch sử-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Địa lý-Huỳnh Thị Diễm</t>
+    <t>Tập làm văn-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Kĩ thuật-Nguyễn Thị Thanh Thủy</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 4C</t>
   </si>
   <si>
-    <t>Tập đọc-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Toán-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Khoa học-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Đạo đức-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Chính tả-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Lịch sử-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Địa lý-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Chào cờ-Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Kỹ thuật-Trần Công Đức</t>
+    <t>Đạo đức-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Toán-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Khoa học-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>HĐTT-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Lịch sử-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Thể dục-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Địa lý-Trần Thị Ngọc Hiền</t>
+  </si>
+  <si>
+    <t>Kĩ thuật-Trần Thị Ngọc Hiền</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 4D</t>
   </si>
   <si>
-    <t>Kỹ thuật-Huỳnh Thị Xuân Duyên</t>
+    <t>HĐTT-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Nguyễn Văn Huy</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Hương</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Kĩ thuật-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4E</t>
+  </si>
+  <si>
+    <t>HĐTT-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Tập đọc-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Toán-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Địa lý-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Kĩ thuật-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Lịch sử-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Khoa học-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Chính tả-Phạm Hồng Hạnh</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 5A</t>
   </si>
   <si>
-    <t>Tập đọc-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Toán-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Chào cờ-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Đạo đức-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Khoa học-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Chính tả-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Lịch sử-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Kỹ thuật-Võ Thị Hồng Phương</t>
+    <t>HĐTT-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Phi Hùng</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 5B</t>
   </si>
   <si>
-    <t>Tập đọc-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Toán-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Chào cờ-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Đạo đức-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Khoa học-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Chính tả-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Lịch sử-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Địa lý-Nguyễn Thanh Tùng</t>
+    <t>HĐTT-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Toán-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Chính tả-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Lịch sử-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Địa lý-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Khoa học-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Tập đọc-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phạm Thị Kim Hoàng</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Phạm Thị Kim Hoàng</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 5C</t>
   </si>
   <si>
-    <t>Anh văn-Võ Thị Thanh Khiết</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Toán-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Chính tả-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Tập đọc-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Chào cờ-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Đạo đức-Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Lịch sử-Lê Xuân Phong</t>
+    <t>HĐTT-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Toán-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Khoa học-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Lịch sử-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Sĩ Tấn</t>
+  </si>
+  <si>
+    <t>Địa lý-Trần Sĩ Tấn</t>
   </si>
   <si>
     <t>THỜI KHÓA BIỂU LỚP 5D</t>
   </si>
   <si>
-    <t>Anh văn-Huỳnh Thị Xuân Duyên</t>
-  </si>
-  <si>
-    <t>Tập đọc-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Toán-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Đạo đức-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Chính tả-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Lê Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Chào cờ-Lê Mỹ Duyên</t>
+    <t>HĐTT-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Toán-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Khoa học-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Chính tả-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Lịch sử-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Địa lý-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Ngọc Thành</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5E</t>
+  </si>
+  <si>
+    <t>HĐTT-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Ngọc Anh</t>
   </si>
 </sst>
 </file>
@@ -1177,21 +1501,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S373"/>
+  <dimension ref="A1:S535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A363" sqref="A363:H373"/>
+      <selection activeCell="A525" sqref="A525:H535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="27.95" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="44.703369" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="39.990234" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="42.418213" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="48.273926" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="42.418213" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="42.418213" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="47.131348" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="47.131348" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="36.419678" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="44.703369" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
@@ -1247,17 +1571,21 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="27">
@@ -1266,18 +1594,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="27">
@@ -1286,16 +1616,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="27">
@@ -1304,16 +1638,20 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="27">
@@ -1322,14 +1660,12 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1341,9 +1677,7 @@
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1400,7 +1734,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1439,18 +1773,20 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1460,19 +1796,19 @@
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -1485,16 +1821,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -1507,16 +1843,16 @@
         <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1526,20 +1862,14 @@
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:19">
@@ -1549,9 +1879,7 @@
       <c r="B27" s="5">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1608,7 +1936,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -1647,18 +1975,20 @@
       <c r="B40" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H40" s="6"/>
     </row>
@@ -1671,16 +2001,16 @@
         <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -1690,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>33</v>
@@ -1702,7 +2032,7 @@
         <v>33</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42" s="6"/>
     </row>
@@ -1712,19 +2042,19 @@
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H43" s="6"/>
     </row>
@@ -1734,20 +2064,14 @@
         <v>5</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:19">
@@ -1757,9 +2081,7 @@
       <c r="B45" s="5">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1816,7 +2138,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -1856,19 +2178,19 @@
         <v>1</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -1878,19 +2200,19 @@
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H59" s="6"/>
     </row>
@@ -1900,19 +2222,19 @@
         <v>3</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -1922,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>42</v>
@@ -1931,10 +2253,10 @@
         <v>43</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H61" s="6"/>
     </row>
@@ -1944,20 +2266,14 @@
         <v>5</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:19">
@@ -2024,7 +2340,7 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -2064,19 +2380,19 @@
         <v>1</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -2086,19 +2402,19 @@
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H77" s="6"/>
     </row>
@@ -2108,19 +2424,19 @@
         <v>3</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="H78" s="6"/>
     </row>
@@ -2130,19 +2446,19 @@
         <v>4</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H79" s="6"/>
     </row>
@@ -2152,20 +2468,14 @@
         <v>5</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:19">
@@ -2232,7 +2542,7 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -2272,19 +2582,19 @@
         <v>1</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -2294,19 +2604,19 @@
         <v>2</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H95" s="6"/>
     </row>
@@ -2316,19 +2626,19 @@
         <v>3</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -2338,19 +2648,19 @@
         <v>4</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H97" s="6"/>
     </row>
@@ -2360,20 +2670,14 @@
         <v>5</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:19">
@@ -2440,7 +2744,7 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -2480,19 +2784,19 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -2502,19 +2806,19 @@
         <v>2</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -2524,19 +2828,19 @@
         <v>3</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -2546,19 +2850,19 @@
         <v>4</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -2568,20 +2872,14 @@
         <v>5</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:19">
@@ -2648,7 +2946,7 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -2687,21 +2985,11 @@
       <c r="B130" s="5">
         <v>1</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:19">
@@ -2709,21 +2997,11 @@
       <c r="B131" s="5">
         <v>2</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:19">
@@ -2731,21 +3009,11 @@
       <c r="B132" s="5">
         <v>3</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:19">
@@ -2753,21 +3021,11 @@
       <c r="B133" s="5">
         <v>4</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:19">
@@ -2775,21 +3033,11 @@
       <c r="B134" s="5">
         <v>5</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:19">
@@ -2799,11 +3047,21 @@
       <c r="B135" s="5">
         <v>1</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:19">
@@ -2811,11 +3069,21 @@
       <c r="B136" s="5">
         <v>2</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:19">
@@ -2823,11 +3091,21 @@
       <c r="B137" s="5">
         <v>3</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="C137" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:19">
@@ -2835,11 +3113,21 @@
       <c r="B138" s="5">
         <v>4</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+      <c r="C138" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:19">
@@ -2847,16 +3135,22 @@
       <c r="B139" s="5">
         <v>5</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
     <row r="143" spans="1:19">
       <c r="A143" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -2896,19 +3190,19 @@
         <v>1</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H148" s="6"/>
     </row>
@@ -2918,19 +3212,19 @@
         <v>2</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H149" s="6"/>
     </row>
@@ -2940,19 +3234,19 @@
         <v>3</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H150" s="6"/>
     </row>
@@ -2962,19 +3256,19 @@
         <v>4</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H151" s="6"/>
     </row>
@@ -2983,20 +3277,16 @@
       <c r="B152" s="5">
         <v>5</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="C152" s="6"/>
       <c r="D152" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="H152" s="6"/>
     </row>
@@ -3064,7 +3354,7 @@
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -3103,21 +3393,11 @@
       <c r="B166" s="5">
         <v>1</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:19">
@@ -3125,21 +3405,11 @@
       <c r="B167" s="5">
         <v>2</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:19">
@@ -3147,21 +3417,11 @@
       <c r="B168" s="5">
         <v>3</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:19">
@@ -3169,21 +3429,11 @@
       <c r="B169" s="5">
         <v>4</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:19">
@@ -3191,21 +3441,11 @@
       <c r="B170" s="5">
         <v>5</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:19">
@@ -3215,11 +3455,21 @@
       <c r="B171" s="5">
         <v>1</v>
       </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
+      <c r="C171" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:19">
@@ -3227,11 +3477,21 @@
       <c r="B172" s="5">
         <v>2</v>
       </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
+      <c r="C172" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:19">
@@ -3239,11 +3499,21 @@
       <c r="B173" s="5">
         <v>3</v>
       </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
+      <c r="C173" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:19">
@@ -3251,11 +3521,21 @@
       <c r="B174" s="5">
         <v>4</v>
       </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
+      <c r="C174" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:19">
@@ -3263,16 +3543,22 @@
       <c r="B175" s="5">
         <v>5</v>
       </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="C175" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -3311,21 +3597,11 @@
       <c r="B184" s="5">
         <v>1</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:19">
@@ -3333,21 +3609,11 @@
       <c r="B185" s="5">
         <v>2</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:19">
@@ -3355,21 +3621,11 @@
       <c r="B186" s="5">
         <v>3</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:19">
@@ -3377,21 +3633,11 @@
       <c r="B187" s="5">
         <v>4</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:19">
@@ -3399,21 +3645,11 @@
       <c r="B188" s="5">
         <v>5</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:19">
@@ -3423,11 +3659,21 @@
       <c r="B189" s="5">
         <v>1</v>
       </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
+      <c r="C189" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:19">
@@ -3435,11 +3681,21 @@
       <c r="B190" s="5">
         <v>2</v>
       </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
+      <c r="C190" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:19">
@@ -3447,11 +3703,21 @@
       <c r="B191" s="5">
         <v>3</v>
       </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
+      <c r="C191" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:19">
@@ -3459,11 +3725,21 @@
       <c r="B192" s="5">
         <v>4</v>
       </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
+      <c r="C192" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:19">
@@ -3471,16 +3747,24 @@
       <c r="B193" s="5">
         <v>5</v>
       </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
+      <c r="C193" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
     </row>
     <row r="197" spans="1:19">
       <c r="A197" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -3519,21 +3803,11 @@
       <c r="B202" s="5">
         <v>1</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>146</v>
-      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:19">
@@ -3541,21 +3815,11 @@
       <c r="B203" s="5">
         <v>2</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:19">
@@ -3563,21 +3827,11 @@
       <c r="B204" s="5">
         <v>3</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:19">
@@ -3585,21 +3839,11 @@
       <c r="B205" s="5">
         <v>4</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
       <c r="H205" s="6"/>
     </row>
     <row r="206" spans="1:19">
@@ -3607,21 +3851,11 @@
       <c r="B206" s="5">
         <v>5</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:19">
@@ -3631,11 +3865,21 @@
       <c r="B207" s="5">
         <v>1</v>
       </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
+      <c r="C207" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:19">
@@ -3643,11 +3887,21 @@
       <c r="B208" s="5">
         <v>2</v>
       </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
+      <c r="C208" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:19">
@@ -3655,11 +3909,21 @@
       <c r="B209" s="5">
         <v>3</v>
       </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
+      <c r="C209" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:19">
@@ -3667,11 +3931,21 @@
       <c r="B210" s="5">
         <v>4</v>
       </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
+      <c r="C210" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:19">
@@ -3679,16 +3953,22 @@
       <c r="B211" s="5">
         <v>5</v>
       </c>
-      <c r="C211" s="6"/>
+      <c r="C211" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
+      <c r="E211" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -3727,21 +4007,11 @@
       <c r="B220" s="5">
         <v>1</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:19">
@@ -3749,21 +4019,11 @@
       <c r="B221" s="5">
         <v>2</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:19">
@@ -3771,21 +4031,11 @@
       <c r="B222" s="5">
         <v>3</v>
       </c>
-      <c r="C222" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:19">
@@ -3793,21 +4043,11 @@
       <c r="B223" s="5">
         <v>4</v>
       </c>
-      <c r="C223" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
       <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:19">
@@ -3815,21 +4055,11 @@
       <c r="B224" s="5">
         <v>5</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
       <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:19">
@@ -3839,11 +4069,21 @@
       <c r="B225" s="5">
         <v>1</v>
       </c>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
+      <c r="C225" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:19">
@@ -3851,11 +4091,21 @@
       <c r="B226" s="5">
         <v>2</v>
       </c>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
+      <c r="C226" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H226" s="6"/>
     </row>
     <row r="227" spans="1:19">
@@ -3863,11 +4113,21 @@
       <c r="B227" s="5">
         <v>3</v>
       </c>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="6"/>
-      <c r="G227" s="6"/>
+      <c r="C227" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="H227" s="6"/>
     </row>
     <row r="228" spans="1:19">
@@ -3875,11 +4135,21 @@
       <c r="B228" s="5">
         <v>4</v>
       </c>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
-      <c r="G228" s="6"/>
+      <c r="C228" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:19">
@@ -3887,16 +4157,22 @@
       <c r="B229" s="5">
         <v>5</v>
       </c>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
+      <c r="C229" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
+      <c r="F229" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
     <row r="233" spans="1:19">
       <c r="A233" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -3935,21 +4211,11 @@
       <c r="B238" s="5">
         <v>1</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F238" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
       <c r="H238" s="6"/>
     </row>
     <row r="239" spans="1:19">
@@ -3957,21 +4223,11 @@
       <c r="B239" s="5">
         <v>2</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
       <c r="H239" s="6"/>
     </row>
     <row r="240" spans="1:19">
@@ -3979,21 +4235,11 @@
       <c r="B240" s="5">
         <v>3</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F240" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
     <row r="241" spans="1:19">
@@ -4001,21 +4247,11 @@
       <c r="B241" s="5">
         <v>4</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
       <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:19">
@@ -4023,21 +4259,11 @@
       <c r="B242" s="5">
         <v>5</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
       <c r="H242" s="6"/>
     </row>
     <row r="243" spans="1:19">
@@ -4047,11 +4273,21 @@
       <c r="B243" s="5">
         <v>1</v>
       </c>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
+      <c r="C243" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="H243" s="6"/>
     </row>
     <row r="244" spans="1:19">
@@ -4059,11 +4295,21 @@
       <c r="B244" s="5">
         <v>2</v>
       </c>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
+      <c r="C244" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:19">
@@ -4071,11 +4317,21 @@
       <c r="B245" s="5">
         <v>3</v>
       </c>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
-      <c r="G245" s="6"/>
+      <c r="C245" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H245" s="6"/>
     </row>
     <row r="246" spans="1:19">
@@ -4083,11 +4339,21 @@
       <c r="B246" s="5">
         <v>4</v>
       </c>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
+      <c r="C246" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="H246" s="6"/>
     </row>
     <row r="247" spans="1:19">
@@ -4095,16 +4361,22 @@
       <c r="B247" s="5">
         <v>5</v>
       </c>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
+      <c r="C247" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
     <row r="251" spans="1:19">
       <c r="A251" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -4143,21 +4415,11 @@
       <c r="B256" s="5">
         <v>1</v>
       </c>
-      <c r="C256" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G256" s="6" t="s">
-        <v>185</v>
-      </c>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
       <c r="H256" s="6"/>
     </row>
     <row r="257" spans="1:19">
@@ -4165,21 +4427,11 @@
       <c r="B257" s="5">
         <v>2</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>187</v>
-      </c>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
     <row r="258" spans="1:19">
@@ -4187,21 +4439,11 @@
       <c r="B258" s="5">
         <v>3</v>
       </c>
-      <c r="C258" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F258" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G258" s="6" t="s">
-        <v>187</v>
-      </c>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
       <c r="H258" s="6"/>
     </row>
     <row r="259" spans="1:19">
@@ -4209,21 +4451,11 @@
       <c r="B259" s="5">
         <v>4</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E259" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G259" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
       <c r="H259" s="6"/>
     </row>
     <row r="260" spans="1:19">
@@ -4231,21 +4463,11 @@
       <c r="B260" s="5">
         <v>5</v>
       </c>
-      <c r="C260" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F260" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G260" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
       <c r="H260" s="6"/>
     </row>
     <row r="261" spans="1:19">
@@ -4255,11 +4477,21 @@
       <c r="B261" s="5">
         <v>1</v>
       </c>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
-      <c r="G261" s="6"/>
+      <c r="C261" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="H261" s="6"/>
     </row>
     <row r="262" spans="1:19">
@@ -4267,11 +4499,21 @@
       <c r="B262" s="5">
         <v>2</v>
       </c>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
+      <c r="C262" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="H262" s="6"/>
     </row>
     <row r="263" spans="1:19">
@@ -4279,11 +4521,21 @@
       <c r="B263" s="5">
         <v>3</v>
       </c>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="6"/>
+      <c r="C263" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="H263" s="6"/>
     </row>
     <row r="264" spans="1:19">
@@ -4291,11 +4543,21 @@
       <c r="B264" s="5">
         <v>4</v>
       </c>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6"/>
-      <c r="G264" s="6"/>
+      <c r="C264" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="H264" s="6"/>
     </row>
     <row r="265" spans="1:19">
@@ -4303,16 +4565,22 @@
       <c r="B265" s="5">
         <v>5</v>
       </c>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
+      <c r="C265" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
+      <c r="F265" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
     <row r="269" spans="1:19">
       <c r="A269" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="270" spans="1:19">
@@ -4351,21 +4619,11 @@
       <c r="B274" s="5">
         <v>1</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F274" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G274" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
       <c r="H274" s="6"/>
     </row>
     <row r="275" spans="1:19">
@@ -4373,21 +4631,11 @@
       <c r="B275" s="5">
         <v>2</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F275" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
       <c r="H275" s="6"/>
     </row>
     <row r="276" spans="1:19">
@@ -4395,21 +4643,11 @@
       <c r="B276" s="5">
         <v>3</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F276" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G276" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
       <c r="H276" s="6"/>
     </row>
     <row r="277" spans="1:19">
@@ -4417,21 +4655,11 @@
       <c r="B277" s="5">
         <v>4</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F277" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G277" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
       <c r="H277" s="6"/>
     </row>
     <row r="278" spans="1:19">
@@ -4439,21 +4667,11 @@
       <c r="B278" s="5">
         <v>5</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F278" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G278" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
       <c r="H278" s="6"/>
     </row>
     <row r="279" spans="1:19">
@@ -4463,11 +4681,21 @@
       <c r="B279" s="5">
         <v>1</v>
       </c>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
+      <c r="C279" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="H279" s="6"/>
     </row>
     <row r="280" spans="1:19">
@@ -4475,11 +4703,21 @@
       <c r="B280" s="5">
         <v>2</v>
       </c>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
+      <c r="C280" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="H280" s="6"/>
     </row>
     <row r="281" spans="1:19">
@@ -4487,11 +4725,21 @@
       <c r="B281" s="5">
         <v>3</v>
       </c>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
+      <c r="C281" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="H281" s="6"/>
     </row>
     <row r="282" spans="1:19">
@@ -4499,11 +4747,21 @@
       <c r="B282" s="5">
         <v>4</v>
       </c>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
+      <c r="C282" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H282" s="6"/>
     </row>
     <row r="283" spans="1:19">
@@ -4511,16 +4769,22 @@
       <c r="B283" s="5">
         <v>5</v>
       </c>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
+      <c r="C283" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
+      <c r="F283" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
     </row>
     <row r="287" spans="1:19">
       <c r="A287" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -4559,9 +4823,7 @@
       <c r="B292" s="5">
         <v>1</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -4573,9 +4835,7 @@
       <c r="B293" s="5">
         <v>2</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -4625,11 +4885,21 @@
       <c r="B297" s="5">
         <v>1</v>
       </c>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
-      <c r="F297" s="6"/>
-      <c r="G297" s="6"/>
+      <c r="C297" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="H297" s="6"/>
     </row>
     <row r="298" spans="1:19">
@@ -4637,11 +4907,21 @@
       <c r="B298" s="5">
         <v>2</v>
       </c>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6"/>
-      <c r="G298" s="6"/>
+      <c r="C298" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G298" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="H298" s="6"/>
     </row>
     <row r="299" spans="1:19">
@@ -4649,11 +4929,21 @@
       <c r="B299" s="5">
         <v>3</v>
       </c>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-      <c r="F299" s="6"/>
-      <c r="G299" s="6"/>
+      <c r="C299" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="H299" s="6"/>
     </row>
     <row r="300" spans="1:19">
@@ -4661,11 +4951,21 @@
       <c r="B300" s="5">
         <v>4</v>
       </c>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
-      <c r="F300" s="6"/>
-      <c r="G300" s="6"/>
+      <c r="C300" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H300" s="6"/>
     </row>
     <row r="301" spans="1:19">
@@ -4673,16 +4973,22 @@
       <c r="B301" s="5">
         <v>5</v>
       </c>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
+      <c r="C301" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
+      <c r="F301" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -4721,21 +5027,11 @@
       <c r="B310" s="5">
         <v>1</v>
       </c>
-      <c r="C310" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F310" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G310" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
       <c r="H310" s="6"/>
     </row>
     <row r="311" spans="1:19">
@@ -4743,21 +5039,11 @@
       <c r="B311" s="5">
         <v>2</v>
       </c>
-      <c r="C311" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D311" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F311" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G311" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="C311" s="6"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
       <c r="H311" s="6"/>
     </row>
     <row r="312" spans="1:19">
@@ -4765,21 +5051,11 @@
       <c r="B312" s="5">
         <v>3</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F312" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G312" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
       <c r="H312" s="6"/>
     </row>
     <row r="313" spans="1:19">
@@ -4787,21 +5063,11 @@
       <c r="B313" s="5">
         <v>4</v>
       </c>
-      <c r="C313" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F313" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G313" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="C313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
       <c r="H313" s="6"/>
     </row>
     <row r="314" spans="1:19">
@@ -4809,21 +5075,11 @@
       <c r="B314" s="5">
         <v>5</v>
       </c>
-      <c r="C314" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F314" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G314" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
       <c r="H314" s="6"/>
     </row>
     <row r="315" spans="1:19">
@@ -4833,11 +5089,21 @@
       <c r="B315" s="5">
         <v>1</v>
       </c>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-      <c r="F315" s="6"/>
-      <c r="G315" s="6"/>
+      <c r="C315" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F315" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G315" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="H315" s="6"/>
     </row>
     <row r="316" spans="1:19">
@@ -4845,11 +5111,21 @@
       <c r="B316" s="5">
         <v>2</v>
       </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-      <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
+      <c r="C316" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G316" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="H316" s="6"/>
     </row>
     <row r="317" spans="1:19">
@@ -4857,11 +5133,21 @@
       <c r="B317" s="5">
         <v>3</v>
       </c>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
-      <c r="F317" s="6"/>
-      <c r="G317" s="6"/>
+      <c r="C317" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G317" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="H317" s="6"/>
     </row>
     <row r="318" spans="1:19">
@@ -4869,11 +5155,21 @@
       <c r="B318" s="5">
         <v>4</v>
       </c>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
-      <c r="F318" s="6"/>
-      <c r="G318" s="6"/>
+      <c r="C318" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G318" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="H318" s="6"/>
     </row>
     <row r="319" spans="1:19">
@@ -4881,16 +5177,26 @@
       <c r="B319" s="5">
         <v>5</v>
       </c>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
-      <c r="F319" s="6"/>
-      <c r="G319" s="6"/>
+      <c r="C319" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F319" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H319" s="6"/>
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -4929,21 +5235,11 @@
       <c r="B328" s="5">
         <v>1</v>
       </c>
-      <c r="C328" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F328" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G328" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="C328" s="6"/>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
       <c r="H328" s="6"/>
     </row>
     <row r="329" spans="1:19">
@@ -4951,21 +5247,11 @@
       <c r="B329" s="5">
         <v>2</v>
       </c>
-      <c r="C329" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F329" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G329" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="C329" s="6"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
       <c r="H329" s="6"/>
     </row>
     <row r="330" spans="1:19">
@@ -4973,21 +5259,11 @@
       <c r="B330" s="5">
         <v>3</v>
       </c>
-      <c r="C330" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F330" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G330" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
       <c r="H330" s="6"/>
     </row>
     <row r="331" spans="1:19">
@@ -4995,21 +5271,11 @@
       <c r="B331" s="5">
         <v>4</v>
       </c>
-      <c r="C331" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E331" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F331" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G331" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="C331" s="6"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
       <c r="H331" s="6"/>
     </row>
     <row r="332" spans="1:19">
@@ -5017,21 +5283,11 @@
       <c r="B332" s="5">
         <v>5</v>
       </c>
-      <c r="C332" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E332" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F332" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G332" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="C332" s="6"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
       <c r="H332" s="6"/>
     </row>
     <row r="333" spans="1:19">
@@ -5041,11 +5297,21 @@
       <c r="B333" s="5">
         <v>1</v>
       </c>
-      <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
-      <c r="F333" s="6"/>
-      <c r="G333" s="6"/>
+      <c r="C333" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="H333" s="6"/>
     </row>
     <row r="334" spans="1:19">
@@ -5053,11 +5319,21 @@
       <c r="B334" s="5">
         <v>2</v>
       </c>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
+      <c r="C334" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G334" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="H334" s="6"/>
     </row>
     <row r="335" spans="1:19">
@@ -5065,11 +5341,21 @@
       <c r="B335" s="5">
         <v>3</v>
       </c>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-      <c r="F335" s="6"/>
-      <c r="G335" s="6"/>
+      <c r="C335" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G335" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="H335" s="6"/>
     </row>
     <row r="336" spans="1:19">
@@ -5077,11 +5363,21 @@
       <c r="B336" s="5">
         <v>4</v>
       </c>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
+      <c r="C336" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G336" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="H336" s="6"/>
     </row>
     <row r="337" spans="1:19">
@@ -5089,16 +5385,26 @@
       <c r="B337" s="5">
         <v>5</v>
       </c>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
+      <c r="C337" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G337" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="H337" s="6"/>
     </row>
     <row r="341" spans="1:19">
       <c r="A341" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -5137,21 +5443,11 @@
       <c r="B346" s="5">
         <v>1</v>
       </c>
-      <c r="C346" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E346" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F346" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G346" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="C346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
       <c r="H346" s="6"/>
     </row>
     <row r="347" spans="1:19">
@@ -5159,21 +5455,11 @@
       <c r="B347" s="5">
         <v>2</v>
       </c>
-      <c r="C347" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E347" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F347" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G347" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
       <c r="H347" s="6"/>
     </row>
     <row r="348" spans="1:19">
@@ -5181,21 +5467,11 @@
       <c r="B348" s="5">
         <v>3</v>
       </c>
-      <c r="C348" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F348" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G348" s="6" t="s">
-        <v>242</v>
-      </c>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
       <c r="H348" s="6"/>
     </row>
     <row r="349" spans="1:19">
@@ -5203,21 +5479,11 @@
       <c r="B349" s="5">
         <v>4</v>
       </c>
-      <c r="C349" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E349" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F349" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G349" s="6" t="s">
-        <v>244</v>
-      </c>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
       <c r="H349" s="6"/>
     </row>
     <row r="350" spans="1:19">
@@ -5225,21 +5491,11 @@
       <c r="B350" s="5">
         <v>5</v>
       </c>
-      <c r="C350" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E350" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F350" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G350" s="6" t="s">
-        <v>246</v>
-      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
       <c r="H350" s="6"/>
     </row>
     <row r="351" spans="1:19">
@@ -5249,11 +5505,21 @@
       <c r="B351" s="5">
         <v>1</v>
       </c>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
-      <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
+      <c r="C351" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F351" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H351" s="6"/>
     </row>
     <row r="352" spans="1:19">
@@ -5261,11 +5527,21 @@
       <c r="B352" s="5">
         <v>2</v>
       </c>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
-      <c r="F352" s="6"/>
-      <c r="G352" s="6"/>
+      <c r="C352" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G352" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="H352" s="6"/>
     </row>
     <row r="353" spans="1:19">
@@ -5273,11 +5549,21 @@
       <c r="B353" s="5">
         <v>3</v>
       </c>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
-      <c r="F353" s="6"/>
-      <c r="G353" s="6"/>
+      <c r="C353" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F353" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G353" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="H353" s="6"/>
     </row>
     <row r="354" spans="1:19">
@@ -5285,11 +5571,21 @@
       <c r="B354" s="5">
         <v>4</v>
       </c>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
-      <c r="F354" s="6"/>
-      <c r="G354" s="6"/>
+      <c r="C354" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G354" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H354" s="6"/>
     </row>
     <row r="355" spans="1:19">
@@ -5297,16 +5593,26 @@
       <c r="B355" s="5">
         <v>5</v>
       </c>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
-      <c r="F355" s="6"/>
-      <c r="G355" s="6"/>
+      <c r="C355" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G355" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H355" s="6"/>
     </row>
     <row r="359" spans="1:19">
       <c r="A359" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -5346,19 +5652,19 @@
         <v>1</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H364" s="6"/>
     </row>
@@ -5368,19 +5674,19 @@
         <v>2</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="H365" s="6"/>
     </row>
@@ -5390,19 +5696,19 @@
         <v>3</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H366" s="6"/>
     </row>
@@ -5412,19 +5718,19 @@
         <v>4</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H367" s="6"/>
     </row>
@@ -5434,19 +5740,19 @@
         <v>5</v>
       </c>
       <c r="C368" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D368" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D368" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="E368" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F368" s="6" t="s">
         <v>250</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="H368" s="6"/>
     </row>
@@ -5511,6 +5817,1878 @@
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
+    </row>
+    <row r="377" spans="1:19">
+      <c r="A377" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19">
+      <c r="A378" s="2"/>
+    </row>
+    <row r="381" spans="1:19">
+      <c r="A381" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F381" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G381" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H381" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19">
+      <c r="A382" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" s="5">
+        <v>1</v>
+      </c>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383" spans="1:19">
+      <c r="A383" s="6"/>
+      <c r="B383" s="5">
+        <v>2</v>
+      </c>
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
+    </row>
+    <row r="384" spans="1:19">
+      <c r="A384" s="6"/>
+      <c r="B384" s="5">
+        <v>3</v>
+      </c>
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385" spans="1:19">
+      <c r="A385" s="6"/>
+      <c r="B385" s="5">
+        <v>4</v>
+      </c>
+      <c r="C385" s="6"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386" spans="1:19">
+      <c r="A386" s="6"/>
+      <c r="B386" s="5">
+        <v>5</v>
+      </c>
+      <c r="C386" s="6"/>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387" spans="1:19">
+      <c r="A387" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B387" s="5">
+        <v>1</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F387" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G387" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H387" s="6"/>
+    </row>
+    <row r="388" spans="1:19">
+      <c r="A388" s="6"/>
+      <c r="B388" s="5">
+        <v>2</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E388" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F388" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G388" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389" spans="1:19">
+      <c r="A389" s="6"/>
+      <c r="B389" s="5">
+        <v>3</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F389" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G389" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H389" s="6"/>
+    </row>
+    <row r="390" spans="1:19">
+      <c r="A390" s="6"/>
+      <c r="B390" s="5">
+        <v>4</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G390" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391" spans="1:19">
+      <c r="A391" s="6"/>
+      <c r="B391" s="5">
+        <v>5</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G391" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H391" s="6"/>
+    </row>
+    <row r="395" spans="1:19">
+      <c r="A395" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19">
+      <c r="A396" s="2"/>
+    </row>
+    <row r="399" spans="1:19">
+      <c r="A399" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F399" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G399" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H399" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19">
+      <c r="A400" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" s="5">
+        <v>1</v>
+      </c>
+      <c r="C400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
+    </row>
+    <row r="401" spans="1:19">
+      <c r="A401" s="6"/>
+      <c r="B401" s="5">
+        <v>2</v>
+      </c>
+      <c r="C401" s="6"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+    </row>
+    <row r="402" spans="1:19">
+      <c r="A402" s="6"/>
+      <c r="B402" s="5">
+        <v>3</v>
+      </c>
+      <c r="C402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
+    </row>
+    <row r="403" spans="1:19">
+      <c r="A403" s="6"/>
+      <c r="B403" s="5">
+        <v>4</v>
+      </c>
+      <c r="C403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
+    </row>
+    <row r="404" spans="1:19">
+      <c r="A404" s="6"/>
+      <c r="B404" s="5">
+        <v>5</v>
+      </c>
+      <c r="C404" s="6"/>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
+    </row>
+    <row r="405" spans="1:19">
+      <c r="A405" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B405" s="5">
+        <v>1</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E405" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G405" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H405" s="6"/>
+    </row>
+    <row r="406" spans="1:19">
+      <c r="A406" s="6"/>
+      <c r="B406" s="5">
+        <v>2</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E406" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G406" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H406" s="6"/>
+    </row>
+    <row r="407" spans="1:19">
+      <c r="A407" s="6"/>
+      <c r="B407" s="5">
+        <v>3</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F407" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G407" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H407" s="6"/>
+    </row>
+    <row r="408" spans="1:19">
+      <c r="A408" s="6"/>
+      <c r="B408" s="5">
+        <v>4</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F408" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G408" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H408" s="6"/>
+    </row>
+    <row r="409" spans="1:19">
+      <c r="A409" s="6"/>
+      <c r="B409" s="5">
+        <v>5</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F409" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G409" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H409" s="6"/>
+    </row>
+    <row r="413" spans="1:19">
+      <c r="A413" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19">
+      <c r="A414" s="2"/>
+    </row>
+    <row r="417" spans="1:19">
+      <c r="A417" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F417" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G417" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H417" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19">
+      <c r="A418" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" s="5">
+        <v>1</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E418" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G418" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H418" s="6"/>
+    </row>
+    <row r="419" spans="1:19">
+      <c r="A419" s="6"/>
+      <c r="B419" s="5">
+        <v>2</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E419" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F419" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G419" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H419" s="6"/>
+    </row>
+    <row r="420" spans="1:19">
+      <c r="A420" s="6"/>
+      <c r="B420" s="5">
+        <v>3</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E420" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G420" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H420" s="6"/>
+    </row>
+    <row r="421" spans="1:19">
+      <c r="A421" s="6"/>
+      <c r="B421" s="5">
+        <v>4</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E421" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F421" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G421" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H421" s="6"/>
+    </row>
+    <row r="422" spans="1:19">
+      <c r="A422" s="6"/>
+      <c r="B422" s="5">
+        <v>5</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E422" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F422" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G422" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H422" s="6"/>
+    </row>
+    <row r="423" spans="1:19">
+      <c r="A423" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B423" s="5">
+        <v>1</v>
+      </c>
+      <c r="C423" s="6"/>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="6"/>
+    </row>
+    <row r="424" spans="1:19">
+      <c r="A424" s="6"/>
+      <c r="B424" s="5">
+        <v>2</v>
+      </c>
+      <c r="C424" s="6"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+      <c r="F424" s="6"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="6"/>
+    </row>
+    <row r="425" spans="1:19">
+      <c r="A425" s="6"/>
+      <c r="B425" s="5">
+        <v>3</v>
+      </c>
+      <c r="C425" s="6"/>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+      <c r="F425" s="6"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="6"/>
+    </row>
+    <row r="426" spans="1:19">
+      <c r="A426" s="6"/>
+      <c r="B426" s="5">
+        <v>4</v>
+      </c>
+      <c r="C426" s="6"/>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="6"/>
+    </row>
+    <row r="427" spans="1:19">
+      <c r="A427" s="6"/>
+      <c r="B427" s="5">
+        <v>5</v>
+      </c>
+      <c r="C427" s="6"/>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+      <c r="F427" s="6"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="6"/>
+    </row>
+    <row r="431" spans="1:19">
+      <c r="A431" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19">
+      <c r="A432" s="2"/>
+    </row>
+    <row r="435" spans="1:19">
+      <c r="A435" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E435" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F435" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G435" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H435" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19">
+      <c r="A436" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436" s="5">
+        <v>1</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E436" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F436" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G436" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H436" s="6"/>
+    </row>
+    <row r="437" spans="1:19">
+      <c r="A437" s="6"/>
+      <c r="B437" s="5">
+        <v>2</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E437" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F437" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G437" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H437" s="6"/>
+    </row>
+    <row r="438" spans="1:19">
+      <c r="A438" s="6"/>
+      <c r="B438" s="5">
+        <v>3</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E438" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F438" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G438" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H438" s="6"/>
+    </row>
+    <row r="439" spans="1:19">
+      <c r="A439" s="6"/>
+      <c r="B439" s="5">
+        <v>4</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E439" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F439" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G439" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H439" s="6"/>
+    </row>
+    <row r="440" spans="1:19">
+      <c r="A440" s="6"/>
+      <c r="B440" s="5">
+        <v>5</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E440" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G440" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H440" s="6"/>
+    </row>
+    <row r="441" spans="1:19">
+      <c r="A441" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B441" s="5">
+        <v>1</v>
+      </c>
+      <c r="C441" s="6"/>
+      <c r="D441" s="6"/>
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
+    </row>
+    <row r="442" spans="1:19">
+      <c r="A442" s="6"/>
+      <c r="B442" s="5">
+        <v>2</v>
+      </c>
+      <c r="C442" s="6"/>
+      <c r="D442" s="6"/>
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="6"/>
+    </row>
+    <row r="443" spans="1:19">
+      <c r="A443" s="6"/>
+      <c r="B443" s="5">
+        <v>3</v>
+      </c>
+      <c r="C443" s="6"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="6"/>
+    </row>
+    <row r="444" spans="1:19">
+      <c r="A444" s="6"/>
+      <c r="B444" s="5">
+        <v>4</v>
+      </c>
+      <c r="C444" s="6"/>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
+    </row>
+    <row r="445" spans="1:19">
+      <c r="A445" s="6"/>
+      <c r="B445" s="5">
+        <v>5</v>
+      </c>
+      <c r="C445" s="6"/>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
+    </row>
+    <row r="449" spans="1:19">
+      <c r="A449" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="450" spans="1:19">
+      <c r="A450" s="2"/>
+    </row>
+    <row r="453" spans="1:19">
+      <c r="A453" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E453" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F453" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G453" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H453" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:19">
+      <c r="A454" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B454" s="5">
+        <v>1</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E454" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F454" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G454" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H454" s="6"/>
+    </row>
+    <row r="455" spans="1:19">
+      <c r="A455" s="6"/>
+      <c r="B455" s="5">
+        <v>2</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E455" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F455" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G455" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H455" s="6"/>
+    </row>
+    <row r="456" spans="1:19">
+      <c r="A456" s="6"/>
+      <c r="B456" s="5">
+        <v>3</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E456" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F456" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G456" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H456" s="6"/>
+    </row>
+    <row r="457" spans="1:19">
+      <c r="A457" s="6"/>
+      <c r="B457" s="5">
+        <v>4</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E457" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F457" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G457" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H457" s="6"/>
+    </row>
+    <row r="458" spans="1:19">
+      <c r="A458" s="6"/>
+      <c r="B458" s="5">
+        <v>5</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E458" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F458" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G458" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H458" s="6"/>
+    </row>
+    <row r="459" spans="1:19">
+      <c r="A459" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B459" s="5">
+        <v>1</v>
+      </c>
+      <c r="C459" s="6"/>
+      <c r="D459" s="6"/>
+      <c r="E459" s="6"/>
+      <c r="F459" s="6"/>
+      <c r="G459" s="6"/>
+      <c r="H459" s="6"/>
+    </row>
+    <row r="460" spans="1:19">
+      <c r="A460" s="6"/>
+      <c r="B460" s="5">
+        <v>2</v>
+      </c>
+      <c r="C460" s="6"/>
+      <c r="D460" s="6"/>
+      <c r="E460" s="6"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="6"/>
+      <c r="H460" s="6"/>
+    </row>
+    <row r="461" spans="1:19">
+      <c r="A461" s="6"/>
+      <c r="B461" s="5">
+        <v>3</v>
+      </c>
+      <c r="C461" s="6"/>
+      <c r="D461" s="6"/>
+      <c r="E461" s="6"/>
+      <c r="F461" s="6"/>
+      <c r="G461" s="6"/>
+      <c r="H461" s="6"/>
+    </row>
+    <row r="462" spans="1:19">
+      <c r="A462" s="6"/>
+      <c r="B462" s="5">
+        <v>4</v>
+      </c>
+      <c r="C462" s="6"/>
+      <c r="D462" s="6"/>
+      <c r="E462" s="6"/>
+      <c r="F462" s="6"/>
+      <c r="G462" s="6"/>
+      <c r="H462" s="6"/>
+    </row>
+    <row r="463" spans="1:19">
+      <c r="A463" s="6"/>
+      <c r="B463" s="5">
+        <v>5</v>
+      </c>
+      <c r="C463" s="6"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
+      <c r="G463" s="6"/>
+      <c r="H463" s="6"/>
+    </row>
+    <row r="467" spans="1:19">
+      <c r="A467" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19">
+      <c r="A468" s="2"/>
+    </row>
+    <row r="471" spans="1:19">
+      <c r="A471" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E471" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F471" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G471" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H471" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:19">
+      <c r="A472" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B472" s="5">
+        <v>1</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E472" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G472" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H472" s="6"/>
+    </row>
+    <row r="473" spans="1:19">
+      <c r="A473" s="6"/>
+      <c r="B473" s="5">
+        <v>2</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E473" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F473" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G473" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H473" s="6"/>
+    </row>
+    <row r="474" spans="1:19">
+      <c r="A474" s="6"/>
+      <c r="B474" s="5">
+        <v>3</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E474" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F474" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G474" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H474" s="6"/>
+    </row>
+    <row r="475" spans="1:19">
+      <c r="A475" s="6"/>
+      <c r="B475" s="5">
+        <v>4</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F475" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G475" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H475" s="6"/>
+    </row>
+    <row r="476" spans="1:19">
+      <c r="A476" s="6"/>
+      <c r="B476" s="5">
+        <v>5</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E476" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F476" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G476" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H476" s="6"/>
+    </row>
+    <row r="477" spans="1:19">
+      <c r="A477" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B477" s="5">
+        <v>1</v>
+      </c>
+      <c r="C477" s="6"/>
+      <c r="D477" s="6"/>
+      <c r="E477" s="6"/>
+      <c r="F477" s="6"/>
+      <c r="G477" s="6"/>
+      <c r="H477" s="6"/>
+    </row>
+    <row r="478" spans="1:19">
+      <c r="A478" s="6"/>
+      <c r="B478" s="5">
+        <v>2</v>
+      </c>
+      <c r="C478" s="6"/>
+      <c r="D478" s="6"/>
+      <c r="E478" s="6"/>
+      <c r="F478" s="6"/>
+      <c r="G478" s="6"/>
+      <c r="H478" s="6"/>
+    </row>
+    <row r="479" spans="1:19">
+      <c r="A479" s="6"/>
+      <c r="B479" s="5">
+        <v>3</v>
+      </c>
+      <c r="C479" s="6"/>
+      <c r="D479" s="6"/>
+      <c r="E479" s="6"/>
+      <c r="F479" s="6"/>
+      <c r="G479" s="6"/>
+      <c r="H479" s="6"/>
+    </row>
+    <row r="480" spans="1:19">
+      <c r="A480" s="6"/>
+      <c r="B480" s="5">
+        <v>4</v>
+      </c>
+      <c r="C480" s="6"/>
+      <c r="D480" s="6"/>
+      <c r="E480" s="6"/>
+      <c r="F480" s="6"/>
+      <c r="G480" s="6"/>
+      <c r="H480" s="6"/>
+    </row>
+    <row r="481" spans="1:19">
+      <c r="A481" s="6"/>
+      <c r="B481" s="5">
+        <v>5</v>
+      </c>
+      <c r="C481" s="6"/>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+      <c r="F481" s="6"/>
+      <c r="G481" s="6"/>
+      <c r="H481" s="6"/>
+    </row>
+    <row r="485" spans="1:19">
+      <c r="A485" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="486" spans="1:19">
+      <c r="A486" s="2"/>
+    </row>
+    <row r="489" spans="1:19">
+      <c r="A489" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D489" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E489" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G489" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H489" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:19">
+      <c r="A490" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B490" s="5">
+        <v>1</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E490" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F490" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G490" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H490" s="6"/>
+    </row>
+    <row r="491" spans="1:19">
+      <c r="A491" s="6"/>
+      <c r="B491" s="5">
+        <v>2</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E491" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F491" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G491" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H491" s="6"/>
+    </row>
+    <row r="492" spans="1:19">
+      <c r="A492" s="6"/>
+      <c r="B492" s="5">
+        <v>3</v>
+      </c>
+      <c r="C492" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D492" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E492" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F492" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G492" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H492" s="6"/>
+    </row>
+    <row r="493" spans="1:19">
+      <c r="A493" s="6"/>
+      <c r="B493" s="5">
+        <v>4</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E493" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F493" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G493" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H493" s="6"/>
+    </row>
+    <row r="494" spans="1:19">
+      <c r="A494" s="6"/>
+      <c r="B494" s="5">
+        <v>5</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E494" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F494" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G494" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H494" s="6"/>
+    </row>
+    <row r="495" spans="1:19">
+      <c r="A495" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495" s="5">
+        <v>1</v>
+      </c>
+      <c r="C495" s="6"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+      <c r="F495" s="6"/>
+      <c r="G495" s="6"/>
+      <c r="H495" s="6"/>
+    </row>
+    <row r="496" spans="1:19">
+      <c r="A496" s="6"/>
+      <c r="B496" s="5">
+        <v>2</v>
+      </c>
+      <c r="C496" s="6"/>
+      <c r="D496" s="6"/>
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
+      <c r="G496" s="6"/>
+      <c r="H496" s="6"/>
+    </row>
+    <row r="497" spans="1:19">
+      <c r="A497" s="6"/>
+      <c r="B497" s="5">
+        <v>3</v>
+      </c>
+      <c r="C497" s="6"/>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+      <c r="F497" s="6"/>
+      <c r="G497" s="6"/>
+      <c r="H497" s="6"/>
+    </row>
+    <row r="498" spans="1:19">
+      <c r="A498" s="6"/>
+      <c r="B498" s="5">
+        <v>4</v>
+      </c>
+      <c r="C498" s="6"/>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+      <c r="G498" s="6"/>
+      <c r="H498" s="6"/>
+    </row>
+    <row r="499" spans="1:19">
+      <c r="A499" s="6"/>
+      <c r="B499" s="5">
+        <v>5</v>
+      </c>
+      <c r="C499" s="6"/>
+      <c r="D499" s="6"/>
+      <c r="E499" s="6"/>
+      <c r="F499" s="6"/>
+      <c r="G499" s="6"/>
+      <c r="H499" s="6"/>
+    </row>
+    <row r="503" spans="1:19">
+      <c r="A503" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="504" spans="1:19">
+      <c r="A504" s="2"/>
+    </row>
+    <row r="507" spans="1:19">
+      <c r="A507" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E507" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F507" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G507" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H507" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:19">
+      <c r="A508" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508" s="5">
+        <v>1</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D508" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E508" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F508" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G508" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H508" s="6"/>
+    </row>
+    <row r="509" spans="1:19">
+      <c r="A509" s="6"/>
+      <c r="B509" s="5">
+        <v>2</v>
+      </c>
+      <c r="C509" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D509" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E509" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F509" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G509" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H509" s="6"/>
+    </row>
+    <row r="510" spans="1:19">
+      <c r="A510" s="6"/>
+      <c r="B510" s="5">
+        <v>3</v>
+      </c>
+      <c r="C510" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D510" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E510" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F510" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G510" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H510" s="6"/>
+    </row>
+    <row r="511" spans="1:19">
+      <c r="A511" s="6"/>
+      <c r="B511" s="5">
+        <v>4</v>
+      </c>
+      <c r="C511" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D511" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E511" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F511" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G511" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H511" s="6"/>
+    </row>
+    <row r="512" spans="1:19">
+      <c r="A512" s="6"/>
+      <c r="B512" s="5">
+        <v>5</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D512" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E512" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F512" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G512" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H512" s="6"/>
+    </row>
+    <row r="513" spans="1:19">
+      <c r="A513" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B513" s="5">
+        <v>1</v>
+      </c>
+      <c r="C513" s="6"/>
+      <c r="D513" s="6"/>
+      <c r="E513" s="6"/>
+      <c r="F513" s="6"/>
+      <c r="G513" s="6"/>
+      <c r="H513" s="6"/>
+    </row>
+    <row r="514" spans="1:19">
+      <c r="A514" s="6"/>
+      <c r="B514" s="5">
+        <v>2</v>
+      </c>
+      <c r="C514" s="6"/>
+      <c r="D514" s="6"/>
+      <c r="E514" s="6"/>
+      <c r="F514" s="6"/>
+      <c r="G514" s="6"/>
+      <c r="H514" s="6"/>
+    </row>
+    <row r="515" spans="1:19">
+      <c r="A515" s="6"/>
+      <c r="B515" s="5">
+        <v>3</v>
+      </c>
+      <c r="C515" s="6"/>
+      <c r="D515" s="6"/>
+      <c r="E515" s="6"/>
+      <c r="F515" s="6"/>
+      <c r="G515" s="6"/>
+      <c r="H515" s="6"/>
+    </row>
+    <row r="516" spans="1:19">
+      <c r="A516" s="6"/>
+      <c r="B516" s="5">
+        <v>4</v>
+      </c>
+      <c r="C516" s="6"/>
+      <c r="D516" s="6"/>
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
+      <c r="G516" s="6"/>
+      <c r="H516" s="6"/>
+    </row>
+    <row r="517" spans="1:19">
+      <c r="A517" s="6"/>
+      <c r="B517" s="5">
+        <v>5</v>
+      </c>
+      <c r="C517" s="6"/>
+      <c r="D517" s="6"/>
+      <c r="E517" s="6"/>
+      <c r="F517" s="6"/>
+      <c r="G517" s="6"/>
+      <c r="H517" s="6"/>
+    </row>
+    <row r="521" spans="1:19">
+      <c r="A521" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19">
+      <c r="A522" s="2"/>
+    </row>
+    <row r="525" spans="1:19">
+      <c r="A525" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E525" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F525" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G525" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H525" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19">
+      <c r="A526" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B526" s="5">
+        <v>1</v>
+      </c>
+      <c r="C526" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D526" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E526" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F526" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G526" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H526" s="6"/>
+    </row>
+    <row r="527" spans="1:19">
+      <c r="A527" s="6"/>
+      <c r="B527" s="5">
+        <v>2</v>
+      </c>
+      <c r="C527" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D527" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E527" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F527" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G527" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H527" s="6"/>
+    </row>
+    <row r="528" spans="1:19">
+      <c r="A528" s="6"/>
+      <c r="B528" s="5">
+        <v>3</v>
+      </c>
+      <c r="C528" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E528" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F528" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G528" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H528" s="6"/>
+    </row>
+    <row r="529" spans="1:19">
+      <c r="A529" s="6"/>
+      <c r="B529" s="5">
+        <v>4</v>
+      </c>
+      <c r="C529" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E529" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F529" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G529" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H529" s="6"/>
+    </row>
+    <row r="530" spans="1:19">
+      <c r="A530" s="6"/>
+      <c r="B530" s="5">
+        <v>5</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D530" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E530" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F530" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G530" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H530" s="6"/>
+    </row>
+    <row r="531" spans="1:19">
+      <c r="A531" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B531" s="5">
+        <v>1</v>
+      </c>
+      <c r="C531" s="6"/>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6"/>
+      <c r="F531" s="6"/>
+      <c r="G531" s="6"/>
+      <c r="H531" s="6"/>
+    </row>
+    <row r="532" spans="1:19">
+      <c r="A532" s="6"/>
+      <c r="B532" s="5">
+        <v>2</v>
+      </c>
+      <c r="C532" s="6"/>
+      <c r="D532" s="6"/>
+      <c r="E532" s="6"/>
+      <c r="F532" s="6"/>
+      <c r="G532" s="6"/>
+      <c r="H532" s="6"/>
+    </row>
+    <row r="533" spans="1:19">
+      <c r="A533" s="6"/>
+      <c r="B533" s="5">
+        <v>3</v>
+      </c>
+      <c r="C533" s="6"/>
+      <c r="D533" s="6"/>
+      <c r="E533" s="6"/>
+      <c r="F533" s="6"/>
+      <c r="G533" s="6"/>
+      <c r="H533" s="6"/>
+    </row>
+    <row r="534" spans="1:19">
+      <c r="A534" s="6"/>
+      <c r="B534" s="5">
+        <v>4</v>
+      </c>
+      <c r="C534" s="6"/>
+      <c r="D534" s="6"/>
+      <c r="E534" s="6"/>
+      <c r="F534" s="6"/>
+      <c r="G534" s="6"/>
+      <c r="H534" s="6"/>
+    </row>
+    <row r="535" spans="1:19">
+      <c r="A535" s="6"/>
+      <c r="B535" s="5">
+        <v>5</v>
+      </c>
+      <c r="C535" s="6"/>
+      <c r="D535" s="6"/>
+      <c r="E535" s="6"/>
+      <c r="F535" s="6"/>
+      <c r="G535" s="6"/>
+      <c r="H535" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -5599,6 +7777,42 @@
     <mergeCell ref="A360:H360"/>
     <mergeCell ref="A364:A368"/>
     <mergeCell ref="A369:A373"/>
+    <mergeCell ref="A377:H377"/>
+    <mergeCell ref="A378:H378"/>
+    <mergeCell ref="A382:A386"/>
+    <mergeCell ref="A387:A391"/>
+    <mergeCell ref="A395:H395"/>
+    <mergeCell ref="A396:H396"/>
+    <mergeCell ref="A400:A404"/>
+    <mergeCell ref="A405:A409"/>
+    <mergeCell ref="A413:H413"/>
+    <mergeCell ref="A414:H414"/>
+    <mergeCell ref="A418:A422"/>
+    <mergeCell ref="A423:A427"/>
+    <mergeCell ref="A431:H431"/>
+    <mergeCell ref="A432:H432"/>
+    <mergeCell ref="A436:A440"/>
+    <mergeCell ref="A441:A445"/>
+    <mergeCell ref="A449:H449"/>
+    <mergeCell ref="A450:H450"/>
+    <mergeCell ref="A454:A458"/>
+    <mergeCell ref="A459:A463"/>
+    <mergeCell ref="A467:H467"/>
+    <mergeCell ref="A468:H468"/>
+    <mergeCell ref="A472:A476"/>
+    <mergeCell ref="A477:A481"/>
+    <mergeCell ref="A485:H485"/>
+    <mergeCell ref="A486:H486"/>
+    <mergeCell ref="A490:A494"/>
+    <mergeCell ref="A495:A499"/>
+    <mergeCell ref="A503:H503"/>
+    <mergeCell ref="A504:H504"/>
+    <mergeCell ref="A508:A512"/>
+    <mergeCell ref="A513:A517"/>
+    <mergeCell ref="A521:H521"/>
+    <mergeCell ref="A522:H522"/>
+    <mergeCell ref="A526:A530"/>
+    <mergeCell ref="A531:A535"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.47244094488189" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.315" footer="0.315"/>

--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>THỜI KHÓA BIỂU LỚP 1A</t>
   </si>
@@ -47,7 +47,919 @@
     <t>Sáng</t>
   </si>
   <si>
+    <t>Chào cờ-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Học vần-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Toán-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Thể dục-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Thủ công-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-1A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trịnh Thị Lệ Hoa-1A</t>
+  </si>
+  <si>
     <t>Chiều</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1B</t>
+  </si>
+  <si>
+    <t>Chào cờ-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Học vần-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Toán-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Thủ công-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Thể dục-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-1B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Phan Thị Ngân-1B</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1C</t>
+  </si>
+  <si>
+    <t>Chào cờ-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Học vần-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Toán-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Thủ công-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-1C</t>
+  </si>
+  <si>
+    <t>Thể dục-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Đỗ Thị Phân-1C</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 1D</t>
+  </si>
+  <si>
+    <t>Chào cờ-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Học vần-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Toán-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Đạo đức-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Thủ công-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Thể dục-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-1D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Tạ Nguyễn Hướng Dương-1D</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2A</t>
+  </si>
+  <si>
+    <t>Chào cờ-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Toán-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Thể dục-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Tập viết-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Chính tả-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-2A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Thủ công-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Đào Thị Ngọc-2A</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2B</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-2B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Nguyễn Thị Ngọc Thạch-2B</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2C</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Toán-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-2C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Tập viết-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Thể dục-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Thủ công-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Trần Thị Thu Hà-2C</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2D</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-2D</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Nguyễn Công Mỹ Trang-2D</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 2Đ</t>
+  </si>
+  <si>
+    <t>Chào cờ-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Toán-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-2Đ</t>
+  </si>
+  <si>
+    <t>Thể dục-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Tập đọc-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Tập viết-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Chính tả-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Đạo đức-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Thủ công-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Phan Thị Đức-2Đ</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3A</t>
+  </si>
+  <si>
+    <t>Anh văn-Võ Thị Thanh Khiết-3A</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Toán-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Tập viết-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-3A</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Tập đọc kể chuyện-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Thủ công-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Chào cờ-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Thể dục-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Lê Thị Diễm Lệ-3A</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3B</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Anh văn-Võ Thị Thanh Khiết-3B</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Tập đọc kể chuyện-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-3B</t>
+  </si>
+  <si>
+    <t>Thủ công-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Tập viết-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thị Nga-3B</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3C</t>
+  </si>
+  <si>
+    <t>Anh văn-Nguyễn Trang-3C</t>
+  </si>
+  <si>
+    <t>Chính tả-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Toán-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Thể dục-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Đạo đức-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-3C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Tập đọc kể chuyện-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Thủ công-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Chào cờ-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Tập viết-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Mai Anh Tùng-3C</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 3D</t>
+  </si>
+  <si>
+    <t>Toán-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Tập đọc kể chuyện-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Thể dục-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Thủ công-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>Tập viết-Trần Quang Phú-3D</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4A</t>
+  </si>
+  <si>
+    <t>Chào cờ-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Chính tả-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Toán-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Anh văn-Nguyễn Trang-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Khoa học-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-4A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Địa lý-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Lịch sử-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4B</t>
+  </si>
+  <si>
+    <t>Chào cờ-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Chính tả-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Toán-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Đạo đức-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Anh văn-Nguyễn Trang-4B</t>
+  </si>
+  <si>
+    <t>Địa lý-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-4B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Lịch sử-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Huỳnh Thị Diễm-4B</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 4C</t>
+  </si>
+  <si>
+    <t>Thể dục-Nguyễn Thị Hiên-4C</t>
+  </si>
+  <si>
+    <t>Chính tả-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Toán-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Địa lý-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Khoa học-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Lịch sử-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Chào cờ-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trần Công Đức-4C</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5A</t>
+  </si>
+  <si>
+    <t>Chào cờ-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Chính tả-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Toán-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Tập đọc-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Anh văn-Võ Thị Thanh Khiết-5A</t>
+  </si>
+  <si>
+    <t>Đạo đức-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Khoa học-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Địa lý-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5B</t>
+  </si>
+  <si>
+    <t>Chào cờ-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Chính tả-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Tập đọc-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Khoa học-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Lịch sử-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Anh văn-Võ Thị Thanh Khiết-5B</t>
+  </si>
+  <si>
+    <t>Địa lý-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Trần Văn Thành-5B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5C</t>
+  </si>
+  <si>
+    <t>Chào cờ-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Toán-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Khoa học-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Địa lý-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Anh văn-Võ Thị Thanh Khiết-5C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Lịch sử-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP 5D</t>
+  </si>
+  <si>
+    <t>Chào cờ-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Toán-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Tập đọc-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Khoa học-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Địa lý-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Kể chuyện-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Lịch sử-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Chính tả-Lê Mỹ Duyên-5D</t>
+  </si>
+  <si>
+    <t>Đạo đức-Lê Mỹ Duyên-5D</t>
   </si>
 </sst>
 </file>
@@ -436,21 +1348,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:H13"/>
+      <selection activeCell="A345" sqref="A345:H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="27.95" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="42.418213" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="44.703369" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="48.273926" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="44.703369" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="45.845947" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
@@ -506,11 +1418,21 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="27">
@@ -518,11 +1440,21 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="27">
@@ -530,11 +1462,21 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="27">
@@ -542,11 +1484,21 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="27">
@@ -554,8 +1506,12 @@
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -563,7 +1519,7 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -622,6 +1578,3904 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="6"/>
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="6"/>
+      <c r="B59" s="5">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="6"/>
+      <c r="B60" s="5">
+        <v>3</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="6"/>
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5">
+        <v>5</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="6"/>
+      <c r="B64" s="5">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="6"/>
+      <c r="B65" s="5">
+        <v>3</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5">
+        <v>4</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="6"/>
+      <c r="B67" s="5">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5">
+        <v>2</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5">
+        <v>5</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5">
+        <v>3</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5">
+        <v>2</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5">
+        <v>4</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="6"/>
+      <c r="B98" s="5">
+        <v>5</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="6"/>
+      <c r="B100" s="5">
+        <v>2</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="6"/>
+      <c r="B101" s="5">
+        <v>3</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5">
+        <v>4</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5">
+        <v>5</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="6"/>
+      <c r="B113" s="5">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="6"/>
+      <c r="B114" s="5">
+        <v>3</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="6"/>
+      <c r="B115" s="5">
+        <v>4</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="6"/>
+      <c r="B116" s="5">
+        <v>5</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="6"/>
+      <c r="B118" s="5">
+        <v>2</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="6"/>
+      <c r="B119" s="5">
+        <v>3</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="6"/>
+      <c r="B120" s="5">
+        <v>4</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="6"/>
+      <c r="B121" s="5">
+        <v>5</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="6"/>
+      <c r="B131" s="5">
+        <v>2</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="6"/>
+      <c r="B132" s="5">
+        <v>3</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="6"/>
+      <c r="B133" s="5">
+        <v>4</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="6"/>
+      <c r="B134" s="5">
+        <v>5</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="6"/>
+      <c r="B136" s="5">
+        <v>2</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="6"/>
+      <c r="B137" s="5">
+        <v>3</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="6"/>
+      <c r="B138" s="5">
+        <v>4</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="6"/>
+      <c r="B139" s="5">
+        <v>5</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="6"/>
+      <c r="B149" s="5">
+        <v>2</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="6"/>
+      <c r="B150" s="5">
+        <v>3</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="6"/>
+      <c r="B151" s="5">
+        <v>4</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="6"/>
+      <c r="B152" s="5">
+        <v>5</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" s="6"/>
+      <c r="B154" s="5">
+        <v>2</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" s="6"/>
+      <c r="B155" s="5">
+        <v>3</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="6"/>
+      <c r="B156" s="5">
+        <v>4</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="6"/>
+      <c r="B157" s="5">
+        <v>5</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="A167" s="6"/>
+      <c r="B167" s="5">
+        <v>2</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="A168" s="6"/>
+      <c r="B168" s="5">
+        <v>3</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="6"/>
+      <c r="B169" s="5">
+        <v>4</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="6"/>
+      <c r="B170" s="5">
+        <v>5</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="6"/>
+      <c r="B172" s="5">
+        <v>2</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="6"/>
+      <c r="B173" s="5">
+        <v>3</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="6"/>
+      <c r="B174" s="5">
+        <v>4</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="6"/>
+      <c r="B175" s="5">
+        <v>5</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" s="6"/>
+      <c r="B185" s="5">
+        <v>2</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="6"/>
+      <c r="B186" s="5">
+        <v>3</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" s="6"/>
+      <c r="B187" s="5">
+        <v>4</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" s="6"/>
+      <c r="B188" s="5">
+        <v>5</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="6"/>
+      <c r="B190" s="5">
+        <v>2</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="6"/>
+      <c r="B191" s="5">
+        <v>3</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="6"/>
+      <c r="B192" s="5">
+        <v>4</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="6"/>
+      <c r="B193" s="5">
+        <v>5</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
+      <c r="A202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" s="6"/>
+      <c r="B203" s="5">
+        <v>2</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:19">
+      <c r="A204" s="6"/>
+      <c r="B204" s="5">
+        <v>3</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" s="6"/>
+      <c r="B205" s="5">
+        <v>4</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:19">
+      <c r="A206" s="6"/>
+      <c r="B206" s="5">
+        <v>5</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:19">
+      <c r="A208" s="6"/>
+      <c r="B208" s="5">
+        <v>2</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209" s="6"/>
+      <c r="B209" s="5">
+        <v>3</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:19">
+      <c r="A210" s="6"/>
+      <c r="B210" s="5">
+        <v>4</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:19">
+      <c r="A211" s="6"/>
+      <c r="B211" s="5">
+        <v>5</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="215" spans="1:19">
+      <c r="A215" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="219" spans="1:19">
+      <c r="A219" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
+      <c r="A220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:19">
+      <c r="A221" s="6"/>
+      <c r="B221" s="5">
+        <v>2</v>
+      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:19">
+      <c r="A222" s="6"/>
+      <c r="B222" s="5">
+        <v>3</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:19">
+      <c r="A223" s="6"/>
+      <c r="B223" s="5">
+        <v>4</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:19">
+      <c r="A224" s="6"/>
+      <c r="B224" s="5">
+        <v>5</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:19">
+      <c r="A225" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:19">
+      <c r="A226" s="6"/>
+      <c r="B226" s="5">
+        <v>2</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:19">
+      <c r="A227" s="6"/>
+      <c r="B227" s="5">
+        <v>3</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:19">
+      <c r="A228" s="6"/>
+      <c r="B228" s="5">
+        <v>4</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:19">
+      <c r="A229" s="6"/>
+      <c r="B229" s="5">
+        <v>5</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="233" spans="1:19">
+      <c r="A233" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="237" spans="1:19">
+      <c r="A237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
+      <c r="A238" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="5">
+        <v>1</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:19">
+      <c r="A239" s="6"/>
+      <c r="B239" s="5">
+        <v>2</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:19">
+      <c r="A240" s="6"/>
+      <c r="B240" s="5">
+        <v>3</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:19">
+      <c r="A241" s="6"/>
+      <c r="B241" s="5">
+        <v>4</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:19">
+      <c r="A242" s="6"/>
+      <c r="B242" s="5">
+        <v>5</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:19">
+      <c r="A243" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="5">
+        <v>1</v>
+      </c>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:19">
+      <c r="A244" s="6"/>
+      <c r="B244" s="5">
+        <v>2</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="1:19">
+      <c r="A245" s="6"/>
+      <c r="B245" s="5">
+        <v>3</v>
+      </c>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="1:19">
+      <c r="A246" s="6"/>
+      <c r="B246" s="5">
+        <v>4</v>
+      </c>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="1:19">
+      <c r="A247" s="6"/>
+      <c r="B247" s="5">
+        <v>5</v>
+      </c>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="251" spans="1:19">
+      <c r="A251" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="255" spans="1:19">
+      <c r="A255" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19">
+      <c r="A256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="5">
+        <v>1</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="1:19">
+      <c r="A257" s="6"/>
+      <c r="B257" s="5">
+        <v>2</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="1:19">
+      <c r="A258" s="6"/>
+      <c r="B258" s="5">
+        <v>3</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:19">
+      <c r="A259" s="6"/>
+      <c r="B259" s="5">
+        <v>4</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:19">
+      <c r="A260" s="6"/>
+      <c r="B260" s="5">
+        <v>5</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="1:19">
+      <c r="A261" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" s="5">
+        <v>1</v>
+      </c>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="1:19">
+      <c r="A262" s="6"/>
+      <c r="B262" s="5">
+        <v>2</v>
+      </c>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:19">
+      <c r="A263" s="6"/>
+      <c r="B263" s="5">
+        <v>3</v>
+      </c>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:19">
+      <c r="A264" s="6"/>
+      <c r="B264" s="5">
+        <v>4</v>
+      </c>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:19">
+      <c r="A265" s="6"/>
+      <c r="B265" s="5">
+        <v>5</v>
+      </c>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="269" spans="1:19">
+      <c r="A269" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="273" spans="1:19">
+      <c r="A273" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19">
+      <c r="A274" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="5">
+        <v>1</v>
+      </c>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="1:19">
+      <c r="A275" s="6"/>
+      <c r="B275" s="5">
+        <v>2</v>
+      </c>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:19">
+      <c r="A276" s="6"/>
+      <c r="B276" s="5">
+        <v>3</v>
+      </c>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:19">
+      <c r="A277" s="6"/>
+      <c r="B277" s="5">
+        <v>4</v>
+      </c>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:19">
+      <c r="A278" s="6"/>
+      <c r="B278" s="5">
+        <v>5</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:19">
+      <c r="A279" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B279" s="5">
+        <v>1</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:19">
+      <c r="A280" s="6"/>
+      <c r="B280" s="5">
+        <v>2</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:19">
+      <c r="A281" s="6"/>
+      <c r="B281" s="5">
+        <v>3</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:19">
+      <c r="A282" s="6"/>
+      <c r="B282" s="5">
+        <v>4</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:19">
+      <c r="A283" s="6"/>
+      <c r="B283" s="5">
+        <v>5</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="287" spans="1:19">
+      <c r="A287" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="291" spans="1:19">
+      <c r="A291" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H291" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19">
+      <c r="A292" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" s="5">
+        <v>1</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:19">
+      <c r="A293" s="6"/>
+      <c r="B293" s="5">
+        <v>2</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="1:19">
+      <c r="A294" s="6"/>
+      <c r="B294" s="5">
+        <v>3</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="1:19">
+      <c r="A295" s="6"/>
+      <c r="B295" s="5">
+        <v>4</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:19">
+      <c r="A296" s="6"/>
+      <c r="B296" s="5">
+        <v>5</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="1:19">
+      <c r="A297" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B297" s="5">
+        <v>1</v>
+      </c>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="1:19">
+      <c r="A298" s="6"/>
+      <c r="B298" s="5">
+        <v>2</v>
+      </c>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="1:19">
+      <c r="A299" s="6"/>
+      <c r="B299" s="5">
+        <v>3</v>
+      </c>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="1:19">
+      <c r="A300" s="6"/>
+      <c r="B300" s="5">
+        <v>4</v>
+      </c>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="1:19">
+      <c r="A301" s="6"/>
+      <c r="B301" s="5">
+        <v>5</v>
+      </c>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="305" spans="1:19">
+      <c r="A305" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="309" spans="1:19">
+      <c r="A309" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19">
+      <c r="A310" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" s="5">
+        <v>1</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:19">
+      <c r="A311" s="6"/>
+      <c r="B311" s="5">
+        <v>2</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G311" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" spans="1:19">
+      <c r="A312" s="6"/>
+      <c r="B312" s="5">
+        <v>3</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313" spans="1:19">
+      <c r="A313" s="6"/>
+      <c r="B313" s="5">
+        <v>4</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="1:19">
+      <c r="A314" s="6"/>
+      <c r="B314" s="5">
+        <v>5</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G314" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" spans="1:19">
+      <c r="A315" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" s="5">
+        <v>1</v>
+      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:19">
+      <c r="A316" s="6"/>
+      <c r="B316" s="5">
+        <v>2</v>
+      </c>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317" spans="1:19">
+      <c r="A317" s="6"/>
+      <c r="B317" s="5">
+        <v>3</v>
+      </c>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="1:19">
+      <c r="A318" s="6"/>
+      <c r="B318" s="5">
+        <v>4</v>
+      </c>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="1:19">
+      <c r="A319" s="6"/>
+      <c r="B319" s="5">
+        <v>5</v>
+      </c>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="323" spans="1:19">
+      <c r="A323" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" s="5">
+        <v>1</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="A329" s="6"/>
+      <c r="B329" s="5">
+        <v>2</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G329" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" s="6"/>
+      <c r="B330" s="5">
+        <v>3</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331" spans="1:19">
+      <c r="A331" s="6"/>
+      <c r="B331" s="5">
+        <v>4</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G331" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" s="6"/>
+      <c r="B332" s="5">
+        <v>5</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333" spans="1:19">
+      <c r="A333" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B333" s="5">
+        <v>1</v>
+      </c>
+      <c r="C333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334" spans="1:19">
+      <c r="A334" s="6"/>
+      <c r="B334" s="5">
+        <v>2</v>
+      </c>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335" spans="1:19">
+      <c r="A335" s="6"/>
+      <c r="B335" s="5">
+        <v>3</v>
+      </c>
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336" spans="1:19">
+      <c r="A336" s="6"/>
+      <c r="B336" s="5">
+        <v>4</v>
+      </c>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337" spans="1:19">
+      <c r="A337" s="6"/>
+      <c r="B337" s="5">
+        <v>5</v>
+      </c>
+      <c r="C337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+    </row>
+    <row r="341" spans="1:19">
+      <c r="A341" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19">
+      <c r="A342" s="2"/>
+    </row>
+    <row r="345" spans="1:19">
+      <c r="A345" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
+      <c r="A346" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="5">
+        <v>1</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F346" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G346" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347" spans="1:19">
+      <c r="A347" s="6"/>
+      <c r="B347" s="5">
+        <v>2</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F347" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G347" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H347" s="6"/>
+    </row>
+    <row r="348" spans="1:19">
+      <c r="A348" s="6"/>
+      <c r="B348" s="5">
+        <v>3</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F348" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G348" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H348" s="6"/>
+    </row>
+    <row r="349" spans="1:19">
+      <c r="A349" s="6"/>
+      <c r="B349" s="5">
+        <v>4</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F349" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G349" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H349" s="6"/>
+    </row>
+    <row r="350" spans="1:19">
+      <c r="A350" s="6"/>
+      <c r="B350" s="5">
+        <v>5</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+    </row>
+    <row r="351" spans="1:19">
+      <c r="A351" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B351" s="5">
+        <v>1</v>
+      </c>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+    </row>
+    <row r="352" spans="1:19">
+      <c r="A352" s="6"/>
+      <c r="B352" s="5">
+        <v>2</v>
+      </c>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353" spans="1:19">
+      <c r="A353" s="6"/>
+      <c r="B353" s="5">
+        <v>3</v>
+      </c>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+    </row>
+    <row r="354" spans="1:19">
+      <c r="A354" s="6"/>
+      <c r="B354" s="5">
+        <v>4</v>
+      </c>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+    </row>
+    <row r="355" spans="1:19">
+      <c r="A355" s="6"/>
+      <c r="B355" s="5">
+        <v>5</v>
+      </c>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -630,6 +5484,82 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A161:H161"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A179:H179"/>
+    <mergeCell ref="A180:H180"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="A198:H198"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A215:H215"/>
+    <mergeCell ref="A216:H216"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="A225:A229"/>
+    <mergeCell ref="A233:H233"/>
+    <mergeCell ref="A234:H234"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A251:H251"/>
+    <mergeCell ref="A252:H252"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="A269:H269"/>
+    <mergeCell ref="A270:H270"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A287:H287"/>
+    <mergeCell ref="A288:H288"/>
+    <mergeCell ref="A292:A296"/>
+    <mergeCell ref="A297:A301"/>
+    <mergeCell ref="A305:H305"/>
+    <mergeCell ref="A306:H306"/>
+    <mergeCell ref="A310:A314"/>
+    <mergeCell ref="A315:A319"/>
+    <mergeCell ref="A323:H323"/>
+    <mergeCell ref="A324:H324"/>
+    <mergeCell ref="A328:A332"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="A341:H341"/>
+    <mergeCell ref="A342:H342"/>
+    <mergeCell ref="A346:A350"/>
+    <mergeCell ref="A351:A355"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.47244094488189" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.315" footer="0.315"/>
